--- a/Process Results/Unified_IBNP_PHS.xlsx
+++ b/Process Results/Unified_IBNP_PHS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\Process Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC04ABE-0AF7-40F1-A9A4-DA89BA2529E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7E3285-165D-4DB8-8F33-043F6349F75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Process Results/Unified_IBNP_PHS.xlsx
+++ b/Process Results/Unified_IBNP_PHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -405,14 +405,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -435,16 +435,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -485,7 +485,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -496,7 +496,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -605,7 +605,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -616,7 +616,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -725,7 +725,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -736,7 +736,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -845,7 +845,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -856,7 +856,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -965,7 +965,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -976,7 +976,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1085,7 +1085,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1098,7 +1098,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1207,7 +1207,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1220,7 +1220,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1329,7 +1329,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1342,7 +1342,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1451,7 +1451,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1464,7 +1464,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1582,8 +1582,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1595,9 +1595,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1633,7 +1633,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1650,16 +1650,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1688,16 +1688,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1722,10 +1722,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1740,14 +1740,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1770,16 +1770,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1820,7 +1820,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1831,7 +1831,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1940,7 +1940,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1951,7 +1951,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2060,7 +2060,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2071,7 +2071,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2180,7 +2180,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2191,7 +2191,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2300,7 +2300,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2311,7 +2311,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2420,7 +2420,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -2433,7 +2433,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2542,7 +2542,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -2555,7 +2555,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2664,7 +2664,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -2677,7 +2677,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2786,7 +2786,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -2799,7 +2799,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2917,8 +2917,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2930,9 +2930,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2968,7 +2968,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2985,16 +2985,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3023,16 +3023,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3057,10 +3057,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+    <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3093,7 +3093,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -3113,9 +3113,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3140,9 +3140,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3513,12 +3513,12 @@
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1061918976564484</v>
+        <v>0.07737739893917235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1233099864021301</v>
+        <v>0.04090164523737613</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1159411649528916</v>
+        <v>0.08395122965737151</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.1141125399449076</v>
+        <v>0.05351519270103228</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5747292325588864</v>
+        <v>0.2893295093708534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6062902260967424</v>
+        <v>0.2076835853234706</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5511851069012936</v>
+        <v>0.375177398483605</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5900880189547142</v>
+        <v>0.2418004293547872</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7852143624499406</v>
+        <v>0.5382115899698406</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8275621352634798</v>
+        <v>0.4994447234071717</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8144977203234153</v>
+        <v>0.6156773546587059</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8058322716754921</v>
+        <v>0.5181039911224544</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8822689128707716</v>
+        <v>0.7655831244644596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9051856182989585</v>
+        <v>0.7723503577659413</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8955370816718939</v>
+        <v>0.8453340903466653</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8935803596416579</v>
+        <v>0.7689518524847474</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9125959390387177</v>
+        <v>0.8415441360761545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9316411689296034</v>
+        <v>0.8773917659403745</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9230054502681235</v>
+        <v>0.9104181863137395</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9220202150070221</v>
+        <v>0.8590941579641567</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9197893168836089</v>
+        <v>0.8770071866920248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9391588000044765</v>
+        <v>0.9129168835797217</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9361894052613418</v>
+        <v>0.9304730677352472</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9293731473769287</v>
+        <v>0.8946018225570316</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9406721364527024</v>
+        <v>0.9264761994213563</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9535921318032051</v>
+        <v>0.9438321336569103</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.956677221828506</v>
+        <v>0.9529592213612521</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9470880731480118</v>
+        <v>0.9350736374499288</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9500148637287453</v>
+        <v>0.9756009427194661</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9607814421180814</v>
+        <v>0.9753002699013762</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9646933191327983</v>
+        <v>0.9746312319712483</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9553678202265532</v>
+        <v>0.9754505831405796</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9560278407814609</v>
+        <v>0.9834036741898715</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.965987453302975</v>
+        <v>0.9809803940296029</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9694541596823553</v>
+        <v>0.9793790964555943</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9609818423876233</v>
+        <v>0.9821905394206818</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9595260252940659</v>
+        <v>0.9919897293476135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9696711496527854</v>
+        <v>0.9886898049091059</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.97502969990011</v>
+        <v>0.9851625840603317</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9645719122456184</v>
+        <v>0.9903370181977246</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9636443764709206</v>
+        <v>0.9938466175137387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9734125889272207</v>
+        <v>0.9914127445366568</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9783392699346429</v>
+        <v>0.9877344168274279</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9685038530737433</v>
+        <v>0.9926281890947776</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9670361249083914</v>
+        <v>0.9947353089458344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9760939208634979</v>
+        <v>0.9928213734923282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9808957823672175</v>
+        <v>0.9894884217863746</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.971543911672173</v>
+        <v>0.9937774196984644</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9880085229243417</v>
+        <v>0.9961376292583199</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9892507697135324</v>
+        <v>0.996803131351874</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9894005520925492</v>
+        <v>0.9977829877584481</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9886292560875976</v>
+        <v>0.9964702691896425</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9888235075267298</v>
+        <v>0.996775340438727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9897959544795674</v>
+        <v>0.9979329217679725</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9901165263690208</v>
+        <v>0.9986163872832104</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9893094920352484</v>
+        <v>0.9973537952160024</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.997516108913672</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9908261291608548</v>
+        <v>0.9985407145194615</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9907365900876004</v>
+        <v>0.9989404697463831</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.990183174547298</v>
+        <v>0.9980281487439312</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9990548359036976</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9992983205929001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9908886217380395</v>
+        <v>0.9993828966849211</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.9991765634148863</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4487,20 +4487,20 @@
         <v/>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
         <f>+I27/I28</f>
         <v/>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="J27" s="5">
         <f>I27</f>
@@ -4525,20 +4525,20 @@
         <v/>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
         <f>+I28/I29</f>
         <v/>
       </c>
       <c r="I28" s="5" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
         <f>I28</f>
@@ -4833,43 +4833,43 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>10.46444210526316</v>
+        <v>5.225688168333908</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.398395770338047</v>
+        <v>2.511282721873728</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.117448438183367</v>
+        <v>1.056954954907594</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.037044964434002</v>
+        <v>1.055090535153404</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.034369389151752</v>
+        <v>1.018166865993465</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.026854836556064</v>
+        <v>1.070632631191736</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.007159068362674</v>
+        <v>1.015243902439024</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.00406181737895</v>
+        <v>1.002768726172981</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.002456127069034</v>
+        <v>1.002654886052291</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.00374722597185</v>
+        <v>1.001376885273682</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.010052457718941</v>
+        <v>1.003807670340363</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.010403049210773</v>
+        <v>1.024579689376857</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.00366168537138</v>
+        <v>1.002056792990779</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1.001822340833247</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
         <v>1</v>
@@ -4908,43 +4908,43 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.464227014755959</v>
+        <v>23.43306666666667</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.655560134807261</v>
+        <v>1.476198243444528</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.118456581311545</v>
+        <v>1.287186021113943</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.028495656232051</v>
+        <v>1.0312884813418</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.013525411630632</v>
+        <v>1.02371309669491</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.072966557640137</v>
+        <v>1.013921292836899</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.002306937422216</v>
+        <v>1.006061122221442</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.002601840021263</v>
+        <v>1.004788789659675</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.0012975440087</v>
+        <v>1.005688411567954</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.002594316865113</v>
+        <v>1.001987326361181</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>1.005909265946261</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.003583034879659</v>
+        <v>1.000758358935531</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.001290470608655</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>1</v>
@@ -4965,13 +4965,13 @@
         <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1</v>
+        <v>1.001970239083966</v>
       </c>
       <c r="V39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1.003981391939739</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,43 +4983,43 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>6.62494688221709</v>
+        <v>2.688765641569459</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.461165055312658</v>
+        <v>2.650114809430544</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.104631014044849</v>
+        <v>1.085142949158122</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.015442557788643</v>
+        <v>1.030172159599753</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.054568673134588</v>
+        <v>1.015054003932642</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.025614547449436</v>
+        <v>1.008525073158243</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.006096217985023</v>
+        <v>1.008105266771813</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.08561175265631</v>
+        <v>1.002322013175103</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.006144987864864</v>
+        <v>1.003989758418841</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.001610522077574</v>
+        <v>1.001666475662918</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.000894189110724</v>
+        <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.003212991911293</v>
+        <v>1.03583360613799</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000444819674552</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1.022675716797193</v>
+        <v>1</v>
       </c>
       <c r="V40" s="4" t="n">
         <v>1</v>
@@ -5058,40 +5058,40 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>4.796790660225443</v>
+        <v>5.714060185185186</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.390232062701612</v>
+        <v>2.004650646512784</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.081849777590394</v>
+        <v>1.144756274113719</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.021985664900076</v>
+        <v>1.021889780014772</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.02162189551077</v>
+        <v>1.012265182222603</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.006413419267451</v>
+        <v>1.008874107810853</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.007965686795143</v>
+        <v>1.004398025354278</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.004639432924948</v>
+        <v>1.007578635926372</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.003252428518418</v>
+        <v>1.000501442147617</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.004343653854892</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.006064341737491</v>
+        <v>1.005489255696849</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.005195651613686</v>
+        <v>1.002150628711489</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5100,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1.000332456981142</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000825389782071</v>
       </c>
       <c r="R41" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5133,49 +5133,49 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>8.194779911373708</v>
+        <v>7.840643545279384</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.496006212118317</v>
+        <v>1.493701364413581</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.095184828454047</v>
+        <v>1.024677912117019</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.025853603475252</v>
+        <v>1.017982406142276</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.012440155879443</v>
+        <v>1.008990096698742</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.009215474964521</v>
+        <v>1.002813682625979</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.005250197268117</v>
+        <v>1.003896927817985</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.005119619982493</v>
+        <v>1.004658160864927</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.010908205492683</v>
+        <v>1.002009177303715</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.001335839505254</v>
+        <v>1.007403625617162</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.002360255433</v>
+        <v>1.001990412336882</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.001330916116657</v>
+        <v>1</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.004089683487126</v>
+        <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.001018256524886</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,43 +5208,43 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>9.943453744493391</v>
+        <v>6.010030651340997</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.201728068201218</v>
+        <v>1.274171914385784</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.078772427671818</v>
+        <v>1.094812149363908</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.053816015534313</v>
+        <v>1.037245411616638</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.015249932817536</v>
+        <v>1.011455313921863</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.023645437894924</v>
+        <v>1.015463767086918</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.00635068566103</v>
+        <v>1.019088971336086</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.003721911505947</v>
+        <v>1.002736048363233</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.005251697379485</v>
+        <v>1.009864876380506</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.009844966465365</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.004361827155194</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.004201084024307</v>
+        <v>1</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.001005747848957</v>
+        <v>1</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
@@ -5283,52 +5283,52 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>4.163085516306538</v>
+        <v>3.489603024574669</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.339589367862629</v>
+        <v>1.342367280606717</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.022842840737306</v>
+        <v>1.078624783596515</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.014540599118383</v>
+        <v>1.021325607227959</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.018718467879594</v>
+        <v>1.004762178630786</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.021421436510281</v>
+        <v>1.008020874690968</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.003842692990101</v>
+        <v>1.004701894465617</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.007941952806567</v>
+        <v>1.011339733743052</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.002528120970199</v>
+        <v>1.002313708222883</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.001260872846017</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.001743625450655</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.001171804212964</v>
+        <v>1.007280235439263</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.002331170806916</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>1.001406986744426</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>1.002283141110414</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>1.000907321124742</v>
       </c>
       <c r="R44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>15.4283014354067</v>
+        <v>4.32448899188876</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.247175466698093</v>
+        <v>1.383907542107065</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.100988527766505</v>
+        <v>1.044725923028816</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.018235796971993</v>
+        <v>1.012417088137233</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.018316669280303</v>
+        <v>1.004210302793994</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.020381024904019</v>
+        <v>1.005286385370202</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.014955102459038</v>
+        <v>1.007434553264948</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.006519983855679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.015372952221586</v>
+        <v>1.002339901256167</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.004527511009055</v>
+        <v>1</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.001843815698739</v>
+        <v>1.002154866676603</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.011553762211713</v>
+        <v>1.011873229417341</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.002685649078493</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.002021557076036</v>
+        <v>1.00232841617896</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1</v>
+        <v>1.002290586640382</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,40 +5433,40 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>6.525058637083994</v>
+        <v>5.230440967283073</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.438716813299551</v>
+        <v>1.32444927930378</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.212915153944041</v>
+        <v>1.030882546201232</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.028126009063478</v>
+        <v>1.012349618496382</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.025726949725747</v>
+        <v>1.004525422841737</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.017157172635207</v>
+        <v>1.057195932618769</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.006487603616761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.000644578591276</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.005668637720713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.007302069714012</v>
+        <v>1.008160586770756</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.000635889124337</v>
+        <v>1.003309410796971</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.00711743229479</v>
+        <v>1.004825019324255</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>1</v>
@@ -5508,43 +5508,43 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>5.225688168333908</v>
+        <v>2.714016341923319</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>2.511282721873728</v>
+        <v>1.378184344603983</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.056954954907594</v>
+        <v>1.042849941186355</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.055090535153404</v>
+        <v>1.019659361907831</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.018166865993465</v>
+        <v>1.013748406686087</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.070632631191736</v>
+        <v>1.011223683968495</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.015243902439024</v>
+        <v>1.001849851842283</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.002768726172981</v>
+        <v>1.000769348420358</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.002654886052291</v>
+        <v>1.005242615089839</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.001376885273682</v>
+        <v>1.004310118040337</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.003807670340363</v>
+        <v>1.00198072456202</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.024579689376857</v>
+        <v>1.001980760841976</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1.002056792990779</v>
+        <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
         <v>1</v>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>23.43306666666667</v>
+        <v>7.230573248407643</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.476198243444528</v>
+        <v>1.179820648343904</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.287186021113943</v>
+        <v>1.162172138895468</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.0312884813418</v>
+        <v>1.060314745291914</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.02371309669491</v>
+        <v>1.003635445300848</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.013921292836899</v>
+        <v>0.9978387082285087</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.006061122221442</v>
+        <v>1.003993134712393</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.004788789659675</v>
+        <v>1.006397592243344</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.005688411567954</v>
+        <v>1.004351238631201</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.001987326361181</v>
+        <v>1.001579185844085</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.005909265946261</v>
+        <v>1.001550266885909</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.000758358935531</v>
+        <v>1</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1</v>
+        <v>1.00155927837196</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>2.688765641569459</v>
+        <v>4.237961024498887</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2.650114809430544</v>
+        <v>1.137633421963802</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.085142949158122</v>
+        <v>1.149272233448875</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.030172159599753</v>
+        <v>1.043209566397026</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.015054003932642</v>
+        <v>1</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.008525073158243</v>
+        <v>1.002518903819294</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.008105266771813</v>
+        <v>1.004996324818763</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.002322013175103</v>
+        <v>1.00854674869618</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.003989758418841</v>
+        <v>1.009671206287279</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.001666475662918</v>
+        <v>1.001709312155363</v>
       </c>
       <c r="L49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.03583360613799</v>
+        <v>1.002169219761345</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.714060185185186</v>
+        <v>3.386285378776914</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2.004650646512784</v>
+        <v>2.20850117729078</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.144756274113719</v>
+        <v>1.993699360858455</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.021889780014772</v>
+        <v>1.006121606546049</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.012265182222603</v>
+        <v>1.002310293007667</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.008874107810853</v>
+        <v>1.005929326431446</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.004398025354278</v>
+        <v>1.005771855230516</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.007578635926372</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.000501442147617</v>
+        <v>1.015558715597191</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.004343653854892</v>
+        <v>1.00207112011375</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.005489255696849</v>
+        <v>1.001159510753623</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>7.840643545279384</v>
+        <v>27.43551612903226</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.493701364413581</v>
+        <v>1.336860274120783</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.024677912117019</v>
+        <v>1.006303131366346</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.017982406142276</v>
+        <v>1.005101816371319</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.008990096698742</v>
+        <v>1.025894380169362</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.002813682625979</v>
+        <v>1.01421786084511</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.003896927817985</v>
+        <v>1.061380242712916</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.004658160864927</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.002009177303715</v>
+        <v>1.001706033163185</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.007403625617162</v>
+        <v>1.001703127571067</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>6.010030651340997</v>
+        <v>3.688375581395349</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.274171914385784</v>
+        <v>1.019388380149703</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.094812149363908</v>
+        <v>1.056198185064309</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.037245411616638</v>
+        <v>1.143999800891304</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.011455313921863</v>
+        <v>1.056314149102728</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.015463767086918</v>
+        <v>1.028098892399887</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.019088971336086</v>
+        <v>1.010638002015557</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.002736048363233</v>
+        <v>1.006509592869438</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.009864876380506</v>
+        <v>1.003127862138665</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>3.489603024574669</v>
+        <v>1.301045636509207</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.342367280606717</v>
+        <v>1.505572287117709</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.078624783596515</v>
+        <v>2.238174026921021</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.021325607227959</v>
+        <v>1.396963312999147</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.004762178630786</v>
+        <v>1.031685295668682</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.008020874690968</v>
+        <v>1.020311660533812</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.004701894465617</v>
+        <v>1.055055389707531</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.011339733743052</v>
+        <v>1.016673933227992</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>4.32448899188876</v>
+        <v>20.70702325581395</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.383907542107065</v>
+        <v>4.173162234586175</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.044725923028816</v>
+        <v>2.127473227780242</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.012417088137233</v>
+        <v>1.065325717801643</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.004210302793994</v>
+        <v>1.02876723649863</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.005286385370202</v>
+        <v>1.039468684657266</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.007434553264948</v>
+        <v>1.091144613644899</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>5.230440967283073</v>
+        <v>121.4743076923077</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.32444927930378</v>
+        <v>4.370585486263002</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.030882546201232</v>
+        <v>1.303823885665935</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.012349618496382</v>
+        <v>1.066830643429884</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.004525422841737</v>
+        <v>1.042047725086701</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.057195932618769</v>
+        <v>1.099550555373293</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>2.714016341923319</v>
+        <v>5.710102272727273</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.378184344603983</v>
+        <v>2.293558001601361</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.042849941186355</v>
+        <v>1.162542303417275</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.019659361907831</v>
+        <v>1.103495580362174</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.013748406686087</v>
+        <v>1.054936802239777</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>7.230573248407643</v>
+        <v>6.881403587443947</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.179820648343904</v>
+        <v>1.943305314316287</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.162172138895468</v>
+        <v>1.359299555179982</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.060314745291914</v>
+        <v>1.130931617382586</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>4.237961024498887</v>
+        <v>3.296488126649077</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.137633421963802</v>
+        <v>1.874587091563822</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.149272233448875</v>
+        <v>1.886576765407756</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3.386285378776914</v>
+        <v>4.200446771378709</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>2.20850117729078</v>
+        <v>1.739301395679675</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>27.43551612903226</v>
+        <v>3.848843111738701</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6569,7 +6569,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.0965791494907506</v>
+        <v>0.09029784217994141</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.1159411649528916</v>
+        <v>0.08395122965737151</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.1233099864021301</v>
+        <v>0.04090164523737613</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.1061918976564484</v>
+        <v>0.07737739893917235</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.06666042088895024</v>
+        <v>0.02884055527797071</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.07774162980661149</v>
+        <v>0.01621376689883728</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06952975626829921</v>
+        <v>0.006813388025086363</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.04494538207459954</v>
+        <v>0.07476238464555154</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.1141125399449076</v>
+        <v>0.05351519270103228</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>5.708303027017624</v>
+        <v>4.654209118321429</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.754006975220989</v>
+        <v>4.468992294869404</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.916797445095403</v>
+        <v>5.077634019809265</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>5.412175930957068</v>
+        <v>3.739199214983953</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>7.850705472690743</v>
+        <v>12.1769206956837</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>6.691865427480046</v>
+        <v>17.18064988068933</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.372465514987015</v>
+        <v>24.23526526037423</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>11.68658751076935</v>
+        <v>3.781926003255496</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>5.164486688026235</v>
+        <v>4.408416617396609</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5513030513848394</v>
+        <v>0.4202650404386326</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5511851069012936</v>
+        <v>0.375177398483605</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6062902260967424</v>
+        <v>0.2076835853234706</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.5747292325588864</v>
+        <v>0.2893295093708534</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5233313310847501</v>
+        <v>0.3511891544393313</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.5202365247788158</v>
+        <v>0.2785630523360333</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.5821354866217874</v>
+        <v>0.1651242661098253</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.5252581408197717</v>
+        <v>0.2827458065564008</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.5900880189547142</v>
+        <v>0.2418004293547872</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.464535808750764</v>
+        <v>1.63400972933999</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.477720842100466</v>
+        <v>1.641029969148343</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.364960376470641</v>
+        <v>2.404834848306757</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.366233554806155</v>
+        <v>1.860202891644827</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.545161470255471</v>
+        <v>1.89187744816725</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.571141722700605</v>
+        <v>2.06518964274975</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.435416068935552</v>
+        <v>2.732416587335054</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.508651749199496</v>
+        <v>1.852397933853261</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.365596965638398</v>
+        <v>2.132518869975792</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.8074030602266598</v>
+        <v>0.6867171649781901</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.8144977203234153</v>
+        <v>0.6156773546587059</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.8275621352634798</v>
+        <v>0.4994447234071717</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7852143624499406</v>
+        <v>0.5382115899698406</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.8086314089696652</v>
+        <v>0.6644068413246963</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.8173653097527644</v>
+        <v>0.5752855305371327</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.8356066317945309</v>
+        <v>0.4511882836900142</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7924316129290236</v>
+        <v>0.5237577478707507</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8058322716754921</v>
+        <v>0.5181039911224544</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.098824249817409</v>
+        <v>1.258518756449322</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.099496118069305</v>
+        <v>1.373014751882936</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.09379777025536</v>
+        <v>1.546418095073724</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.123602617402478</v>
+        <v>1.422457521784992</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.101673686515973</v>
+        <v>1.301721346132995</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.100171485594297</v>
+        <v>1.457365396266001</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.084754594392877</v>
+        <v>1.679648294062035</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.118098104510233</v>
+        <v>1.469472874668337</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.108700193828919</v>
+        <v>1.484437808429358</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8871940619538398</v>
+        <v>0.8642464325007558</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8955370816718939</v>
+        <v>0.8453340903466653</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9051856182989585</v>
+        <v>0.7723503577659413</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8822689128707716</v>
+        <v>0.7655831244644596</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8908479453522168</v>
+        <v>0.8648725678691549</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8992420071039419</v>
+        <v>0.8384012251773452</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9064281329442743</v>
+        <v>0.7578376310007097</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8860162843699275</v>
+        <v>0.7696478033934462</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8935803596416579</v>
+        <v>0.7689518524847474</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.02855974326035</v>
+        <v>1.061094527697241</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.030672508328687</v>
+        <v>1.076992158142331</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.029226658152568</v>
+        <v>1.136002278134848</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.034373903155294</v>
+        <v>1.099219809298737</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.028163803122408</v>
+        <v>1.064085742855555</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.02898843366612</v>
+        <v>1.087858615656438</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.02721863877966</v>
+        <v>1.151257778811123</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.030774575232042</v>
+        <v>1.100419280391548</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.031800280653931</v>
+        <v>1.117611043716793</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9125320965853485</v>
+        <v>0.917047160108415</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9230054502681235</v>
+        <v>0.9104181863137395</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9316411689296034</v>
+        <v>0.8773917659403745</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9125959390387177</v>
+        <v>0.8415441360761545</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9159376114971178</v>
+        <v>0.920298568856441</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.925309624376663</v>
+        <v>0.9120619961860881</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.9310998728746058</v>
+        <v>0.8724664677653604</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9132830591700845</v>
+        <v>0.8469352819651518</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9220202150070221</v>
+        <v>0.8590941579641567</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.018591189998767</v>
+        <v>1.019551577494688</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.014283723882008</v>
+        <v>1.022028208270651</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.008069234513874</v>
+        <v>1.040489458664194</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.007882325065426</v>
+        <v>1.042140452408382</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.017443600811958</v>
+        <v>1.019078010394275</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.013411207451907</v>
+        <v>1.022339621616351</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.007948620262201</v>
+        <v>1.03994093146098</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.007494710773939</v>
+        <v>1.041917254608369</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.00797577978965</v>
+        <v>1.041314955536288</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9294971541729397</v>
+        <v>0.934976878725558</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9361894052613418</v>
+        <v>0.9304730677352472</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9391588000044765</v>
+        <v>0.9129168835797217</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9197893168836089</v>
+        <v>0.8770071866920248</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9319148615607314</v>
+        <v>0.9378560345189204</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9377191437064241</v>
+        <v>0.9324371160715392</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.93850083219027</v>
+        <v>0.9073135911563797</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9201278515533029</v>
+        <v>0.8824364838160963</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9293731473769287</v>
+        <v>0.8946018225570316</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.024063009268383</v>
+        <v>1.023809371505967</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.02188426450035</v>
+        <v>1.024166366986565</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.015368361344918</v>
+        <v>1.03386425493191</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.022703916196644</v>
+        <v>1.05640662183844</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.023022425289589</v>
+        <v>1.022771779091538</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.020807781786673</v>
+        <v>1.024138455744754</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.016275791700615</v>
+        <v>1.034596163373469</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.023501064226646</v>
+        <v>1.053110300188124</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.019036138770781</v>
+        <v>1.045135438385175</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9518636528087383</v>
+        <v>0.957238090580624</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.956677221828506</v>
+        <v>0.9529592213612521</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9535921318032051</v>
+        <v>0.9438321336569103</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9406721364527024</v>
+        <v>0.9264761994213563</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.953369801837271</v>
+        <v>0.9592126849566508</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9572309990258532</v>
+        <v>0.9549447081325985</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9537756762458526</v>
+        <v>0.9387031603869946</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9417518352893832</v>
+        <v>0.9293029503685217</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9470880731480118</v>
+        <v>0.9350736374499288</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.007441544840916</v>
+        <v>1.018738174233066</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.008379103339548</v>
+        <v>1.022741802717475</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.007539187955842</v>
+        <v>1.033340818904461</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.009931969826676</v>
+        <v>1.053023211312704</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.007608520954782</v>
+        <v>1.017868239903297</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.00838056236651</v>
+        <v>1.022171236145959</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.007937606501788</v>
+        <v>1.038164404688364</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.010408473022217</v>
+        <v>1.052279335122662</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.008735578891259</v>
+        <v>1.043182015108583</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9589469888635525</v>
+        <v>0.975174984704451</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9646933191327983</v>
+        <v>0.9746312319712483</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9607814421180814</v>
+        <v>0.9753002699013762</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9500148637287453</v>
+        <v>0.9756009427194661</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9606235359522065</v>
+        <v>0.9763521273297421</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9652531331123462</v>
+        <v>0.9761170127629403</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9613463722548687</v>
+        <v>0.9745282076822498</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9515540338606162</v>
+        <v>0.9778862907413163</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9553678202265532</v>
+        <v>0.9754505831405796</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.011055168477251</v>
+        <v>1.004675180272351</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004935081911666</v>
+        <v>1.004871447095681</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.00541851763229</v>
+        <v>1.005823974732214</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.006329350499965</v>
+        <v>1.007997872007642</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.009815937351798</v>
+        <v>1.004693082710166</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.005011679553942</v>
+        <v>1.00480259653571</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.00557056362206</v>
+        <v>1.006354644506159</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.006244647657071</v>
+        <v>1.007727842032476</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.005873934066127</v>
+        <v>1.006910923369928</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9695483093861912</v>
+        <v>0.9797341035550312</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9694541596823553</v>
+        <v>0.9793790964555943</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.965987453302975</v>
+        <v>0.9809803940296029</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9560278407814609</v>
+        <v>0.9834036741898715</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9700529563997764</v>
+        <v>0.9809342286175471</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9700906725039435</v>
+        <v>0.9808049089468834</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.966701613384351</v>
+        <v>0.9807209880032945</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9574961535287398</v>
+        <v>0.9854432415218896</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9609818423876233</v>
+        <v>0.9821905394206818</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.005248582626487</v>
+        <v>1.005494060286513</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.005751215941537</v>
+        <v>1.005905259389003</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.00381339978818</v>
+        <v>1.00785888375183</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.003659082260351</v>
+        <v>1.008730956964153</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.005172616874441</v>
+        <v>1.004601322150489</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.005640882847834</v>
+        <v>1.004723898018187</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.004118091978487</v>
+        <v>1.006609611817893</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.004125165277279</v>
+        <v>1.006797536966347</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.003736241024266</v>
+        <v>1.008294920357992</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9746370637983749</v>
+        <v>0.9851168217847149</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.97502969990011</v>
+        <v>0.9851625840603317</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9696711496527854</v>
+        <v>0.9886898049091059</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9595260252940659</v>
+        <v>0.9919897293476135</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9750706686911509</v>
+        <v>0.9854478230118576</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9755628403393148</v>
+        <v>0.9854381313124859</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9706825795440194</v>
+        <v>0.9872031730356572</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9614459834144048</v>
+        <v>0.9921418283843713</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9645719122456184</v>
+        <v>0.9903370181977246</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.003348347558566</v>
+        <v>1.00246225733727</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.003394327408562</v>
+        <v>1.002610566833036</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.003858461990722</v>
+        <v>1.002754088910426</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.004292068238162</v>
+        <v>1.001871882451189</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.003500092230291</v>
+        <v>1.0025936726618</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.003554979032259</v>
+        <v>1.002745600469194</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.004013339413975</v>
+        <v>1.00325557508256</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.004471251711657</v>
+        <v>1.00182785328006</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.004075265114442</v>
+        <v>1.002312985680807</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9779004874314317</v>
+        <v>0.9875424329072227</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9783392699346429</v>
+        <v>0.9877344168274279</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9734125889272207</v>
+        <v>0.9914127445366568</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9636443764709206</v>
+        <v>0.9938466175137387</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9784835059626213</v>
+        <v>0.9880037520900334</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9790309457813724</v>
+        <v>0.9881437507081793</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.974578258198962</v>
+        <v>0.9904170870872161</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9657448504134125</v>
+        <v>0.9939553180796686</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9685038530737433</v>
+        <v>0.9926281890947776</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.003062985420585</v>
+        <v>1.001970536975736</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.002613114398184</v>
+        <v>1.001775786009948</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.002754568788998</v>
+        <v>1.001420829985729</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.003519709677435</v>
+        <v>1.000894193748245</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.003320199493273</v>
+        <v>1.002103952615037</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.002759177974468</v>
+        <v>1.001961976137927</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.002947649467758</v>
+        <v>1.001692463279187</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.00379950721437</v>
+        <v>1.000903259213177</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.003137139233217</v>
+        <v>1.001157511866987</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9808957823672175</v>
+        <v>0.9894884217863746</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9808957823672175</v>
+        <v>0.9894884217863746</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9760939208634979</v>
+        <v>0.9928213734923282</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9670361249083914</v>
+        <v>0.9947353089458344</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9817322664032948</v>
+        <v>0.99008246516791</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9817322664032948</v>
+        <v>0.99008246516791</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.977450973283031</v>
+        <v>0.992093331638191</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9694142049397991</v>
+        <v>0.9948531173782107</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.971543911672173</v>
+        <v>0.9937774196984644</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.008670411146847</v>
+        <v>1.008382681180947</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.008670411146847</v>
+        <v>1.008382681180947</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.013479080822873</v>
+        <v>1.004010548086349</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.021687295309611</v>
+        <v>1.001409742169474</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.009078448410518</v>
+        <v>1.00762089566217</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.009078448410518</v>
+        <v>1.00762089566217</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.013502442194974</v>
+        <v>1.00468807746403</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.020390551483459</v>
+        <v>1.001383326867773</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.017583188066242</v>
+        <v>1.002710145127911</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9894005520925492</v>
+        <v>0.9977829877584481</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9894005520925492</v>
+        <v>0.9977829877584481</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9892507697135324</v>
+        <v>0.996803131351874</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9880085229243417</v>
+        <v>0.9961376292583199</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9906448721367782</v>
+        <v>0.997627780331899</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9906448721367782</v>
+        <v>0.997627780331899</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9906489485482063</v>
+        <v>0.9967443420284583</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9891810951944211</v>
+        <v>0.996229324424968</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9886292560875976</v>
+        <v>0.9964702691896425</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000723644508746</v>
+        <v>1.000835251287091</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000723644508746</v>
+        <v>1.000835251287091</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.00055110876102</v>
+        <v>1.001133413791113</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000824876085052</v>
+        <v>1.000640183807615</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000769046954029</v>
+        <v>1.000784808295286</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000769046954029</v>
+        <v>1.000784808295286</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.000510423473289</v>
+        <v>1.001096016376228</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000685597663593</v>
+        <v>1.00051975945732</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000687992423036</v>
+        <v>1.000886798799364</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9901165263690208</v>
+        <v>0.9986163872832104</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9901165263690208</v>
+        <v>0.9986163872832104</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9897959544795674</v>
+        <v>0.9979329217679725</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9888235075267298</v>
+        <v>0.996775340438727</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9914067245582198</v>
+        <v>0.9984107268895115</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9914067245582198</v>
+        <v>0.9984107268895115</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9911545990253348</v>
+        <v>0.9978367901502342</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9898592754421567</v>
+        <v>0.9967471240379976</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9893094920352484</v>
+        <v>0.9973537952160024</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000626253276322</v>
+        <v>1.000324531489068</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000626253276322</v>
+        <v>1.000324531489068</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.001040795000854</v>
+        <v>1.000609051709019</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000725656597673</v>
+        <v>1.000743164928839</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000611124056316</v>
+        <v>1.000373540292339</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000611124056316</v>
+        <v>1.000373540292339</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.00101854009386</v>
+        <v>1.000622567153898</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000673852358679</v>
+        <v>1.00077613872632</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000883225799263</v>
+        <v>1.000676108318929</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9907365900876004</v>
+        <v>0.9989404697463831</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9907365900876004</v>
+        <v>0.9989404697463831</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9908261291608548</v>
+        <v>0.9985407145194615</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.997516108913672</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9920125970571907</v>
+        <v>0.9987836735243079</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9920125970571907</v>
+        <v>0.9987836735243079</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.992164129723656</v>
+        <v>0.9984580105607326</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9975207380813118</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.990183174547298</v>
+        <v>0.9980281487439312</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000153453149869</v>
+        <v>1.000442896200462</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000153453149869</v>
+        <v>1.000442896200462</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000229293986189</v>
+        <v>1.000758713252672</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.001542558537427</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000150079278447</v>
+        <v>1.000508191972311</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000150079278447</v>
+        <v>1.000508191972311</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.000225118917671</v>
+        <v>1.000762287958466</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.001524575916932</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000114646993095</v>
+        <v>1.001150635895049</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9908886217380395</v>
+        <v>0.9993828966849211</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9908886217380395</v>
+        <v>0.9993828966849211</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9992983205929001</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9990548359036976</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9921614775919678</v>
+        <v>0.9992912473692682</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9921614775919678</v>
+        <v>0.9992912473692682</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9992191230792171</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9990415341752313</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.9991765634148863</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.0001662123189</v>
+        <v>1.000191155183188</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.0001662123189</v>
+        <v>1.000191155183188</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1</v>
+        <v>1.000275806840693</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1</v>
+        <v>1.000319497688917</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000227792604156</v>
+        <v>1.000216588863351</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000227792604156</v>
+        <v>1.000216588863351</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1</v>
+        <v>1.000288785151135</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1</v>
+        <v>1.000302440374914</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1</v>
+        <v>1.000297652264805</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9993436846713819</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9993436846713819</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9993436846713819</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9910533196336302</v>
+        <v>0.9995739339056121</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9895410538289012</v>
+        <v>0.9993740316148704</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9923874846386916</v>
+        <v>0.9995076827246929</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9905262944496733</v>
+        <v>0.9993436846713819</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9902966093924893</v>
+        <v>0.999473972764752</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.006679614116335</v>
+        <v>1.000426247704082</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.006679614116335</v>
+        <v>1.000426247704082</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.006679614116335</v>
+        <v>1.000426247704082</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.00821807192044</v>
+        <v>1.00062636046698</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.005668929199298</v>
+        <v>1.000492559770991</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.005668929199298</v>
+        <v>1.000492559770991</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.005668929199298</v>
+        <v>1.000492559770991</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.007558572265731</v>
+        <v>1.000656746361322</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.007448843018388</v>
+        <v>1.000526304085531</v>
       </c>
     </row>
     <row r="22">
@@ -7983,31 +7983,31 @@
         <v/>
       </c>
       <c r="B22" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="C22" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="D22" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="H22" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="I22" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="J22" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <f>+M21+1</f>
@@ -8047,62 +8047,62 @@
         <v/>
       </c>
       <c r="B23" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="C23" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="D23" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="E23" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="H23" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="I23" s="34" t="n">
-        <v>0.9980132590273779</v>
+        <v>1</v>
       </c>
       <c r="J23" s="34" t="n">
-        <v>0.9976731733774955</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <f>+M22+1</f>
         <v/>
       </c>
       <c r="N23" s="22" t="n">
-        <v>1.00233225337174</v>
+        <v>1</v>
       </c>
       <c r="O23" s="22" t="n">
-        <v>1.00233225337174</v>
+        <v>1</v>
       </c>
       <c r="P23" s="22" t="n">
-        <v>1.00233225337174</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="22" t="n">
-        <v>1.00233225337174</v>
+        <v>1</v>
       </c>
       <c r="R23" s="22" t="n">
-        <v>1.001990695969869</v>
+        <v>1</v>
       </c>
       <c r="S23" s="22" t="n">
-        <v>1.001990695969869</v>
+        <v>1</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>1.001990695969869</v>
+        <v>1</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>1.001990695969869</v>
+        <v>1</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>1.00233225337174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -8186,7 +8186,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45322</v>
+        <v>45596</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>186302.7596</v>
+        <v>186908.8742</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1900</v>
+        <v>2899</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>19882.44</v>
+        <v>15149.27</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>27803.52</v>
+        <v>38044.10000000001</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>31069</v>
+        <v>40210.90000000001</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>32219.95</v>
+        <v>42426.14000000001</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>33327.32999999999</v>
+        <v>43196.89000000001</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>34222.32999999999</v>
+        <v>46248.00000000001</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>34467.32999999999</v>
+        <v>46953.00000000001</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>34607.32999999999</v>
+        <v>47083.00000000001</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>34692.32999999999</v>
+        <v>47208.00000000001</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>34822.32999999999</v>
+        <v>47273.00000000001</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>35172.38</v>
+        <v>47453.00000000001</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>35538.28</v>
+        <v>48619.38</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>35668.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>35668.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>35668.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>35733.41</v>
+        <v>48719.38</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>50736.28999999999</v>
+        <v>33055.92000000001</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>191987.4336</v>
+        <v>172213.4724</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>4405</v>
+        <v>675</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>24069.92</v>
+        <v>15817.32</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>39849.2</v>
+        <v>23349.5</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>44569.6</v>
+        <v>30055.15</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>45839.64</v>
+        <v>30995.53</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>46459.64</v>
+        <v>31730.53</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>49849.64</v>
+        <v>32172.26</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>49964.64</v>
+        <v>32367.26</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>50094.64</v>
+        <v>32522.26</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>50159.64</v>
+        <v>32707.26</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>50289.77</v>
+        <v>32772.26</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>50289.77</v>
+        <v>32965.92000000001</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>50469.96</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>50535.09</v>
+        <v>32990.92000000001</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>50535.09</v>
+        <v>33055.92000000001</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>50535.09</v>
+        <v>33055.92000000001</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>50736.28999999999</v>
+        <v>33055.92000000001</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>57502.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>201732.1888</v>
+        <v>160471.8328</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>4330</v>
+        <v>4715</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>28686.02</v>
+        <v>12677.53</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>41915.01</v>
+        <v>33596.91</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>46300.62</v>
+        <v>36457.45</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>47015.62</v>
+        <v>37557.45</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>49581.2</v>
+        <v>38122.84</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>50851.2</v>
+        <v>38447.84</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>51161.2</v>
+        <v>38759.47</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>55541.2</v>
+        <v>38849.47</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>55882.50000000001</v>
+        <v>39004.47</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>55972.50000000001</v>
+        <v>39069.47</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>56022.55000000001</v>
+        <v>39069.47</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>56202.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>56227.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>57502.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>57502.55000000001</v>
+        <v>40469.47</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>207424.0022</v>
+        <v>156240.3563</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>6210</v>
+        <v>2160</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>29788.07</v>
+        <v>12342.37</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>41412.33</v>
+        <v>24742.14</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>44801.92</v>
+        <v>28323.72</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>45786.92</v>
+        <v>28943.72</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>46776.92</v>
+        <v>29298.72</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>47076.92</v>
+        <v>29558.72</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>47451.92</v>
+        <v>29688.72</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>47672.07</v>
+        <v>29913.72</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>47827.12</v>
+        <v>29928.72</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>47827.12</v>
+        <v>30058.72</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>48117.16</v>
+        <v>30223.72</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>48367.16</v>
+        <v>30288.72</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>48367.16</v>
+        <v>30288.72</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>48367.16</v>
+        <v>30288.72</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30288.72</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>48383.24000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>205939.5451</v>
+        <v>158393.6072</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>3385</v>
+        <v>2595</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>27739.33</v>
+        <v>20346.47</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>41498.21</v>
+        <v>30391.55</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>45448.21</v>
+        <v>31141.55</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>46623.21</v>
+        <v>31701.55</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>47203.21</v>
+        <v>31986.55</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>47638.21</v>
+        <v>32076.55</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>47888.32</v>
+        <v>32201.55</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>48133.49</v>
+        <v>32351.55</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>48658.54</v>
+        <v>32416.55</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>48723.54</v>
+        <v>32656.55</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>48838.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>48903.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>48903.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>49103.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>49153.54</v>
+        <v>32721.55</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>214440.7312</v>
+        <v>150005.3691</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>3405</v>
+        <v>2610</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>33857.46</v>
+        <v>15686.18</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>40687.46</v>
+        <v>19986.89</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>43892.51</v>
+        <v>21881.89</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>46254.63</v>
+        <v>22696.89</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>46960.01</v>
+        <v>22956.89</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>48070.4</v>
+        <v>23311.89</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>48375.68</v>
+        <v>23756.89</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>48555.73</v>
+        <v>23821.89</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>48810.73</v>
+        <v>24056.89</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>49291.27</v>
+        <v>24056.89</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>49506.27</v>
+        <v>24056.89</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>49714.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>49764.25000000001</v>
+        <v>24056.89</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>51767.18</v>
+        <v>28560.44</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>210056.0396</v>
+        <v>147637.074</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>8439.559999999999</v>
+        <v>5290</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>35134.61</v>
+        <v>18460</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>47065.95</v>
+        <v>24780.1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>48141.07</v>
+        <v>26728.43</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>48841.07</v>
+        <v>27298.43</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>49755.3</v>
+        <v>27428.43</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>50821.13</v>
+        <v>27648.43</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>51016.42000000001</v>
+        <v>27778.43</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>51421.59</v>
+        <v>28093.43</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>51551.59</v>
+        <v>28158.43</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>51616.59</v>
+        <v>28158.43</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>51706.59</v>
+        <v>28158.43</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28363.43</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28429.55</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28469.55</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28534.55</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28560.44</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>51767.18</v>
+        <v>28560.44</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>49566.82000000001</v>
+        <v>28442.01</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>196084.9384</v>
+        <v>140628.12</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>2090</v>
+        <v>4315</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>32245.15</v>
+        <v>18660.17</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>40215.36</v>
+        <v>25823.95</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>44276.65</v>
+        <v>26978.95</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>45084.07</v>
+        <v>27313.95</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>45909.86</v>
+        <v>27428.95</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>46845.55</v>
+        <v>27573.95</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>47546.13</v>
+        <v>27778.95</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>47856.13</v>
+        <v>27778.95</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>48591.82000000001</v>
+        <v>27843.95</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>48811.82000000001</v>
+        <v>27843.95</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>48901.82000000001</v>
+        <v>27903.95</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>49466.82000000001</v>
+        <v>28235.26</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>49466.82000000001</v>
+        <v>28311.09</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>49566.82000000001</v>
+        <v>28377.01</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>49566.82000000001</v>
+        <v>28442.01</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>49566.82000000001</v>
+        <v>28442.01</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>39620.03000000001</v>
+        <v>27429.01</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>191816.4053</v>
+        <v>151955.1463</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>3155</v>
+        <v>3515</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>20586.56</v>
+        <v>18385</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>29618.23</v>
+        <v>24350</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>35924.4</v>
+        <v>25101.99</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>36934.81</v>
+        <v>25411.99</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>37885.03000000001</v>
+        <v>25526.99</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>38535.03000000001</v>
+        <v>26987.03</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>38785.03000000001</v>
+        <v>26987.03</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>38810.03000000001</v>
+        <v>26987.03</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>39030.03000000001</v>
+        <v>26987.03</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>39315.03000000001</v>
+        <v>27207.26</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>39340.03000000001</v>
+        <v>27297.3</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>39620.03000000001</v>
+        <v>27429.01</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>39620.03000000001</v>
+        <v>27429.01</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>39620.03000000001</v>
+        <v>27429.01</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>39620.03000000001</v>
+        <v>27429.01</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>48719.38</v>
+        <v>32961.61</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>186908.8742</v>
+        <v>160297.9726</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>2899</v>
+        <v>7955</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>15149.27</v>
+        <v>21590</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>38044.10000000001</v>
+        <v>29755</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>40210.90000000001</v>
+        <v>31030</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>42426.14000000001</v>
+        <v>31640.03</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>43196.89000000001</v>
+        <v>32075.03</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>46248.00000000001</v>
+        <v>32435.03</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>46953.00000000001</v>
+        <v>32495.03</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>47083.00000000001</v>
+        <v>32520.03</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>47208.00000000001</v>
+        <v>32690.52</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>47273.00000000001</v>
+        <v>32831.42</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>47453.00000000001</v>
+        <v>32896.45</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>48619.38</v>
+        <v>32961.61</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>48719.38</v>
+        <v>32961.61</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>48719.38</v>
+        <v>32961.61</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>32990.92000000001</v>
+        <v>42129.92</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>172213.4724</v>
+        <v>161260.2412</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>675</v>
+        <v>3925</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>15817.32</v>
+        <v>28380</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>23349.5</v>
+        <v>33483.31</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>30055.15</v>
+        <v>38913.37</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>30995.53</v>
+        <v>41260.42</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>31730.53</v>
+        <v>41410.42</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>32172.26</v>
+        <v>41320.92</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>32367.26</v>
+        <v>41485.92</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>32522.26</v>
+        <v>41751.33</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>32707.26</v>
+        <v>41933</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>32772.26</v>
+        <v>41999.22</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>32965.92000000001</v>
+        <v>42064.33</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>42064.33</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>42129.92</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>40469.47</v>
+        <v>53462.09</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>160471.8328</v>
+        <v>171480.1265</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>4715</v>
+        <v>8980</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>12677.53</v>
+        <v>38056.89</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>33596.91</v>
+        <v>43294.79</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>36457.45</v>
+        <v>49757.5</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>37557.45</v>
+        <v>51907.5</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>38122.84</v>
+        <v>51907.5</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>38447.84</v>
+        <v>52038.25</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>38759.47</v>
+        <v>52298.25</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>38849.47</v>
+        <v>52745.23</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>39004.47</v>
+        <v>53255.34</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>39069.47</v>
+        <v>53346.37</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>39069.47</v>
+        <v>53346.37</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>40469.47</v>
+        <v>53462.09</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>30223.72</v>
+        <v>76025.25</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>156240.3563</v>
+        <v>180826.7985</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>2160</v>
+        <v>4905.13</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>12342.37</v>
+        <v>16610.17</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>24742.14</v>
+        <v>36683.58</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>28323.72</v>
+        <v>73136.03</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>28943.72</v>
+        <v>73583.74000000001</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>29298.72</v>
+        <v>73753.74000000001</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>29558.72</v>
+        <v>74191.05</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>29688.72</v>
+        <v>74619.27</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>29913.72</v>
+        <v>74619.27</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>29928.72</v>
+        <v>75780.25</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>30058.72</v>
+        <v>75937.2</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>30223.72</v>
+        <v>76025.25</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>32656.55</v>
+        <v>38230.08</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>158393.6072</v>
+        <v>193503.087</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>2595</v>
+        <v>930</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>20346.47</v>
+        <v>25515.03</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>30391.55</v>
+        <v>34110.03</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>31141.55</v>
+        <v>34325.03</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>31701.55</v>
+        <v>34500.15</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>31986.55</v>
+        <v>35393.51</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>32076.55</v>
+        <v>35896.73</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>32201.55</v>
+        <v>38100.08</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>32351.55</v>
+        <v>38100.08</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>32416.55</v>
+        <v>38165.08</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>32656.55</v>
+        <v>38230.08</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>24056.89</v>
+        <v>43295.47</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>150005.3691</v>
+        <v>190226.5803</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>2610</v>
+        <v>8600</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>15686.18</v>
+        <v>31720.03</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>19986.89</v>
+        <v>32335.03</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>21881.89</v>
+        <v>34152.2</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>22696.89</v>
+        <v>39070.11</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>22956.89</v>
+        <v>41270.31</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>23311.89</v>
+        <v>42429.96</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>23756.89</v>
+        <v>42881.33</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>23821.89</v>
+        <v>43160.47</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>24056.89</v>
+        <v>43295.47</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>28093.43</v>
+        <v>43185.94999999999</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>147637.074</v>
+        <v>197897.4034</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>5290</v>
+        <v>6245</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>18460</v>
+        <v>8125.03</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>24780.1</v>
+        <v>12232.82</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>26728.43</v>
+        <v>27379.18</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>27298.43</v>
+        <v>38247.71</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>27428.43</v>
+        <v>39459.6</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>27648.43</v>
+        <v>40261.09</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>27778.43</v>
+        <v>42477.67999999999</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>28093.43</v>
+        <v>43185.94999999999</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>27778.95</v>
+        <v>49133.62</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>140628.12</v>
+        <v>203071.6615</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>4315</v>
+        <v>215</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>18660.17</v>
+        <v>4452.01</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>25823.95</v>
+        <v>18578.96</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>26978.95</v>
+        <v>39526.24</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>27313.95</v>
+        <v>42108.32</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>27428.95</v>
+        <v>43319.66</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>27573.95</v>
+        <v>45029.42999999999</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>27778.95</v>
+        <v>49133.62</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>26987.03</v>
+        <v>54998.98</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>151955.1463</v>
+        <v>198087.8535</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>3515</v>
+        <v>65</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>18385</v>
+        <v>7895.83</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>24350</v>
+        <v>34509.4</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>25101.99</v>
+        <v>44994.18</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>25411.99</v>
+        <v>48001.17</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>25526.99</v>
+        <v>50019.50999999999</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>26987.03</v>
+        <v>54998.98</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>32075.03</v>
+        <v>46791.11</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>160297.9726</v>
+        <v>203918.7383</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>7955</v>
+        <v>2640</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>21590</v>
+        <v>15074.67</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>29755</v>
+        <v>34574.63</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>31030</v>
+        <v>40194.47</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>31640.03</v>
+        <v>44354.42</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>32075.03</v>
+        <v>46791.11</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>41260.42</v>
+        <v>45843.15000000001</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>161260.2412</v>
+        <v>198109.2594</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>3925</v>
+        <v>2230</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>28380</v>
+        <v>15345.53</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>33483.31</v>
+        <v>29821.05</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>38913.37</v>
+        <v>40535.74000000001</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>41260.42</v>
+        <v>45843.15000000001</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>49757.5</v>
+        <v>44184.59</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>171480.1265</v>
+        <v>193529.1439</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>8980</v>
+        <v>3790</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>38056.89</v>
+        <v>12493.69</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>43294.79</v>
+        <v>23420.51</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>49757.5</v>
+        <v>44184.59</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>36683.58</v>
+        <v>20931.24</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>180826.7985</v>
+        <v>191031.0336</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>4905.13</v>
+        <v>2865</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>16610.17</v>
+        <v>12034.28</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>36683.58</v>
+        <v>20931.24</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>25515.03</v>
+        <v>12510.78</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>193503.087</v>
+        <v>187676.6539</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>930</v>
+        <v>3250.53</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>25515.03</v>
+        <v>12510.78</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>8600</v>
+        <v>3435</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>190226.5803</v>
+        <v>184637.641</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>30</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>8600</v>
+        <v>3435</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11800,7 +11800,21 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="J35" s="25" t="n"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Previous Quarter</t>
+        </is>
+      </c>
+      <c r="J35" s="25" t="inlineStr">
+        <is>
+          <t>Liability Change</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Annzd Prem Change</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11811,7 +11825,10 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29" t="n"/>
+      <c r="J36" s="29">
+        <f>(H36-I36)/I36</f>
+        <v/>
+      </c>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_PHS.xlsx
+++ b/Process Results/Unified_IBNP_PHS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Completion Factors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plot Patterns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -405,14 +405,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -435,16 +435,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -485,7 +485,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -496,7 +496,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -605,7 +605,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -616,7 +616,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -725,7 +725,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -736,7 +736,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -845,7 +845,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -856,7 +856,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -965,7 +965,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -976,7 +976,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1085,7 +1085,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -1098,7 +1098,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1207,7 +1207,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1220,7 +1220,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1329,7 +1329,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1342,7 +1342,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1451,7 +1451,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -1464,7 +1464,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1582,8 +1582,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1595,9 +1595,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1633,7 +1633,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1650,16 +1650,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -1688,16 +1688,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -1722,10 +1722,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1740,14 +1740,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1770,16 +1770,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1820,7 +1820,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1831,7 +1831,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -1940,7 +1940,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1951,7 +1951,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2060,7 +2060,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2071,7 +2071,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2180,7 +2180,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -2191,7 +2191,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2300,7 +2300,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -2311,7 +2311,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2420,7 +2420,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
@@ -2433,7 +2433,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2542,7 +2542,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -2555,7 +2555,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2664,7 +2664,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -2677,7 +2677,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2786,7 +2786,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4">
                   <a:lumMod val="60000"/>
@@ -2799,7 +2799,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -2917,8 +2917,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2930,9 +2930,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -2968,7 +2968,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -2985,16 +2985,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3023,16 +3023,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3057,10 +3057,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -3093,7 +3093,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -3113,9 +3113,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3140,9 +3140,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -3513,12 +3513,12 @@
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07737739893917235</v>
+        <v>0.06156824237196114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04090164523737613</v>
+        <v>0.06567311812842189</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.08395122965737151</v>
+        <v>0.06643117090858632</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.05351519270103228</v>
+        <v>0.06355446748372268</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2893295093708534</v>
+        <v>0.2608196840235607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2076835853234706</v>
+        <v>0.28626461934442</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.375177398483605</v>
+        <v>0.3101206530296109</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2418004293547872</v>
+        <v>0.2729504286812494</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5382115899698406</v>
+        <v>0.3828079439663751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4994447234071717</v>
+        <v>0.5080547408892652</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6156773546587059</v>
+        <v>0.5522987866971786</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5181039911224544</v>
+        <v>0.4366270898723403</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7655831244644596</v>
+        <v>0.7079174035350587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7723503577659413</v>
+        <v>0.7601140764432271</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8453340903466653</v>
+        <v>0.8151076080848362</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7689518524847474</v>
+        <v>0.7330877991718511</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8415441360761545</v>
+        <v>0.8424380318741087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8773917659403745</v>
+        <v>0.8609284503025082</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9104181863137395</v>
+        <v>0.9016220409209854</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8590941579641567</v>
+        <v>0.8515828823054996</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8770071866920248</v>
+        <v>0.9075213292428751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9129168835797217</v>
+        <v>0.9103672890242713</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9304730677352472</v>
+        <v>0.9340371906781623</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8946018225570316</v>
+        <v>0.9089420814153851</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9264761994213563</v>
+        <v>0.9440706769478052</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9438321336569103</v>
+        <v>0.9426163158182825</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9529592213612521</v>
+        <v>0.9558920222442339</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9350736374499288</v>
+        <v>0.9433429358326443</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9756009427194661</v>
+        <v>0.9782871430065199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9753002699013762</v>
+        <v>0.9788132568474537</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9746312319712483</v>
+        <v>0.9767086315228471</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9754505831405796</v>
+        <v>0.978550129211204</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9834036741898715</v>
+        <v>0.9865040850914774</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9809803940296029</v>
+        <v>0.983715695456965</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9793790964555943</v>
+        <v>0.9816129043950135</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9821905394206818</v>
+        <v>0.9851079171144674</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9919897293476135</v>
+        <v>0.9928266789899849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9886898049091059</v>
+        <v>0.992225316932881</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9851625840603317</v>
+        <v>0.9883783555234381</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9903370181977246</v>
+        <v>0.992525906871546</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9938466175137387</v>
+        <v>0.9954086742313403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9914127445366568</v>
+        <v>0.9943685376613389</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9877344168274279</v>
+        <v>0.9909973184180482</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9926281890947776</v>
+        <v>0.9948883340857319</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9947353089458344</v>
+        <v>0.997196016109653</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9928213734923282</v>
+        <v>0.9958060591060914</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9894884217863746</v>
+        <v>0.9927219713097366</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9937774196984644</v>
+        <v>0.9965005529168386</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9961376292583199</v>
+        <v>0.9972329214079101</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.996803131351874</v>
+        <v>0.9965549008576918</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9977829877584481</v>
+        <v>0.9975614242876299</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9964702691896425</v>
+        <v>0.9968937958467456</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.996775340438727</v>
+        <v>0.9996012593610353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9979329217679725</v>
+        <v>0.9984054103261578</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9986163872832104</v>
+        <v>0.9988779515533235</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9973537952160024</v>
+        <v>0.9990029769731912</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.997516108913672</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9985407145194615</v>
+        <v>0.9991432202070574</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9989404697463831</v>
+        <v>0.9993394329502913</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9980281487439312</v>
+        <v>0.9995714265069745</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9990548359036976</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9992983205929001</v>
+        <v>0.9998513534159519</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9993828966849211</v>
+        <v>0.9997922473012357</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9991765634148863</v>
+        <v>0.9999256711836135</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,43 +4833,43 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.225688168333908</v>
+        <v>2.688765641569459</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.511282721873728</v>
+        <v>2.650114809430544</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.056954954907594</v>
+        <v>1.085142949158122</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.055090535153404</v>
+        <v>1.030172159599753</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.018166865993465</v>
+        <v>1.015054003932642</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.070632631191736</v>
+        <v>1.008525073158243</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.015243902439024</v>
+        <v>1.008105266771813</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.002768726172981</v>
+        <v>1.002322013175103</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.002654886052291</v>
+        <v>1.003989758418841</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.001376885273682</v>
+        <v>1.001666475662918</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.003807670340363</v>
+        <v>1</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.024579689376857</v>
+        <v>1.03583360613799</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1.002056792990779</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4" t="n">
         <v>1</v>
@@ -4908,40 +4908,40 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>23.43306666666667</v>
+        <v>5.714060185185186</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.476198243444528</v>
+        <v>2.004650646512784</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.287186021113943</v>
+        <v>1.144756274113719</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.0312884813418</v>
+        <v>1.021889780014772</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.02371309669491</v>
+        <v>1.012265182222603</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.013921292836899</v>
+        <v>1.008874107810853</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.006061122221442</v>
+        <v>1.004398025354278</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.004788789659675</v>
+        <v>1.007578635926372</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.005688411567954</v>
+        <v>1.000501442147617</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.001987326361181</v>
+        <v>1.004343653854892</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.005909265946261</v>
+        <v>1.005489255696849</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.000758358935531</v>
+        <v>1.002150628711489</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>1</v>
@@ -4953,25 +4953,25 @@
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1</v>
+        <v>1.000825389782071</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>1.001970239083966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,40 +4983,40 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.688765641569459</v>
+        <v>7.840643545279384</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>2.650114809430544</v>
+        <v>1.493701364413581</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.085142949158122</v>
+        <v>1.024677912117019</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.030172159599753</v>
+        <v>1.017982406142276</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.015054003932642</v>
+        <v>1.008990096698742</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.008525073158243</v>
+        <v>1.002813682625979</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.008105266771813</v>
+        <v>1.003896927817985</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.002322013175103</v>
+        <v>1.004658160864927</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.003989758418841</v>
+        <v>1.002009177303715</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.001666475662918</v>
+        <v>1.007403625617162</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>1.001990412336882</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.03583360613799</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1</v>
@@ -5058,40 +5058,40 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>5.714060185185186</v>
+        <v>6.010030651340997</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>2.004650646512784</v>
+        <v>1.274171914385784</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.144756274113719</v>
+        <v>1.094812149363908</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.021889780014772</v>
+        <v>1.037245411616638</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.012265182222603</v>
+        <v>1.011455313921863</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.008874107810853</v>
+        <v>1.015463767086918</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.004398025354278</v>
+        <v>1.019088971336086</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.007578635926372</v>
+        <v>1.002736048363233</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000501442147617</v>
+        <v>1.009864876380506</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.004343653854892</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.005489255696849</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.002150628711489</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5103,19 +5103,19 @@
         <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1.000825389782071</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,52 +5133,52 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>7.840643545279384</v>
+        <v>3.489603024574669</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.493701364413581</v>
+        <v>1.342367280606717</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.024677912117019</v>
+        <v>1.078624783596515</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.017982406142276</v>
+        <v>1.021325607227959</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.008990096698742</v>
+        <v>1.004762178630786</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.002813682625979</v>
+        <v>1.008020874690968</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.003896927817985</v>
+        <v>1.004701894465617</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.004658160864927</v>
+        <v>1.011339733743052</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.002009177303715</v>
+        <v>1.002313708222883</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.007403625617162</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.001990412336882</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.007280235439263</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.002331170806916</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1</v>
+        <v>1.001406986744426</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1</v>
+        <v>1.002283141110414</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1</v>
+        <v>1.000907321124742</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>6.010030651340997</v>
+        <v>4.32448899188876</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.274171914385784</v>
+        <v>1.383907542107065</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.094812149363908</v>
+        <v>1.044725923028816</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.037245411616638</v>
+        <v>1.012417088137233</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.011455313921863</v>
+        <v>1.004210302793994</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.015463767086918</v>
+        <v>1.005286385370202</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.019088971336086</v>
+        <v>1.007434553264948</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.002736048363233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.009864876380506</v>
+        <v>1.002339901256167</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1</v>
+        <v>1.002154866676603</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1</v>
+        <v>1.011873229417341</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.002685649078493</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>1.00232841617896</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>1.002290586640382</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,52 +5283,52 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>3.489603024574669</v>
+        <v>5.230440967283073</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.342367280606717</v>
+        <v>1.32444927930378</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.078624783596515</v>
+        <v>1.030882546201232</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.021325607227959</v>
+        <v>1.012349618496382</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.004762178630786</v>
+        <v>1.004525422841737</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.008020874690968</v>
+        <v>1.057195932618769</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.004701894465617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.011339733743052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.002313708222883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>1.008160586770756</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>1.003309410796971</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.007280235439263</v>
+        <v>1.004825019324255</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.002331170806916</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1.001406986744426</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.002283141110414</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1.000907321124742</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4" t="n">
         <v>1</v>
@@ -5358,49 +5358,49 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>4.32448899188876</v>
+        <v>2.714016341923319</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.383907542107065</v>
+        <v>1.378184344603983</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.044725923028816</v>
+        <v>1.042849941186355</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.012417088137233</v>
+        <v>1.019659361907831</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.004210302793994</v>
+        <v>1.013748406686087</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.005286385370202</v>
+        <v>1.011223683968495</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.007434553264948</v>
+        <v>1.001849851842283</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000769348420358</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.002339901256167</v>
+        <v>1.005242615089839</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.004310118040337</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.002154866676603</v>
+        <v>1.00198072456202</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.011873229417341</v>
+        <v>1.001980760841976</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.002685649078493</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1.00232841617896</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>1.002290586640382</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>1</v>
@@ -5433,43 +5433,43 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>5.230440967283073</v>
+        <v>7.230573248407643</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.32444927930378</v>
+        <v>1.179820648343904</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.030882546201232</v>
+        <v>1.162172138895468</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.012349618496382</v>
+        <v>1.060314745291914</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.004525422841737</v>
+        <v>1.003635445300848</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.057195932618769</v>
+        <v>0.9978387082285087</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.003993134712393</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006397592243344</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.004351238631201</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.008160586770756</v>
+        <v>1.001579185844085</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.003309410796971</v>
+        <v>1.001550266885909</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.004825019324255</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1</v>
+        <v>1.00155927837196</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>2.714016341923319</v>
+        <v>4.237961024498887</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.378184344603983</v>
+        <v>1.137633421963802</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.042849941186355</v>
+        <v>1.149272233448875</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.019659361907831</v>
+        <v>1.043209566397026</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.013748406686087</v>
+        <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.011223683968495</v>
+        <v>1.002518903819294</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.001849851842283</v>
+        <v>1.004996324818763</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.000769348420358</v>
+        <v>1.00854674869618</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.005242615089839</v>
+        <v>1.009671206287279</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.004310118040337</v>
+        <v>1.001709312155363</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.00198072456202</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.001980760841976</v>
+        <v>1.002169219761345</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.000959184349134</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>7.230573248407643</v>
+        <v>3.386285378776914</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.179820648343904</v>
+        <v>2.20850117729078</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.162172138895468</v>
+        <v>1.993699360858455</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.060314745291914</v>
+        <v>1.006121606546049</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.003635445300848</v>
+        <v>1.002310293007667</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0.9978387082285087</v>
+        <v>1.005929326431446</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.003993134712393</v>
+        <v>1.005771855230516</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.006397592243344</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.004351238631201</v>
+        <v>1.015558715597191</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.001579185844085</v>
+        <v>1.00207112011375</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.001550266885909</v>
+        <v>1.001159510753623</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1</v>
+        <v>0.9968447325066343</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.00155927837196</v>
+        <v>1.004502979928712</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>4.237961024498887</v>
+        <v>27.43551612903226</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.137633421963802</v>
+        <v>1.336860274120783</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.149272233448875</v>
+        <v>1.006303131366346</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.043209566397026</v>
+        <v>1.005101816371319</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.025894380169362</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.002518903819294</v>
+        <v>1.01421786084511</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.004996324818763</v>
+        <v>1.061380242712916</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.00854674869618</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.009671206287279</v>
+        <v>1.001706033163185</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.001709312155363</v>
+        <v>1.001703127571067</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>1.005100695577932</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.002169219761345</v>
+        <v>1.003392836137231</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>3.386285378776914</v>
+        <v>3.685468604651163</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2.20850117729078</v>
+        <v>1.019403673067986</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.993699360858455</v>
+        <v>1.056241668608788</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.006121606546049</v>
+        <v>1.144105288450268</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.002310293007667</v>
+        <v>1.056350206210201</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.005929326431446</v>
+        <v>1.028115923968083</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.005771855230516</v>
+        <v>1.010644273688738</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1</v>
+        <v>1.006513390203968</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.015558715597191</v>
+        <v>1.003129674951959</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.00207112011375</v>
+        <v>1.004594588410988</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.001159510753623</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>27.43551612903226</v>
+        <v>1.301045636509207</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.336860274120783</v>
+        <v>1.505572287117709</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.006303131366346</v>
+        <v>2.238174026921021</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.005101816371319</v>
+        <v>1.396963312999147</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.025894380169362</v>
+        <v>1.031685295668682</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.01421786084511</v>
+        <v>1.020311660533812</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.061380242712916</v>
+        <v>1.055055389707531</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1</v>
+        <v>1.016673933227992</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.001706033163185</v>
+        <v>1.009554033198297</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.001703127571067</v>
+        <v>1.001407386254818</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>3.688375581395349</v>
+        <v>20.70702325581395</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.019388380149703</v>
+        <v>4.173162234586175</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.056198185064309</v>
+        <v>2.127473227780242</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.143999800891304</v>
+        <v>1.065325717801643</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.056314149102728</v>
+        <v>1.02876723649863</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.028098892399887</v>
+        <v>1.039468684657266</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.010638002015557</v>
+        <v>1.091144613644899</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.006509592869438</v>
+        <v>1.010277484134082</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.003127862138665</v>
+        <v>1.006522747725106</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>1.301045636509207</v>
+        <v>121.4743076923077</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.505572287117709</v>
+        <v>4.370585486263002</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>2.238174026921021</v>
+        <v>1.303823885665935</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.396963312999147</v>
+        <v>1.066830643429884</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.031685295668682</v>
+        <v>1.042047725086701</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.020311660533812</v>
+        <v>1.099550555373293</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.055055389707531</v>
+        <v>1.015811202316843</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.016673933227992</v>
+        <v>1.000456249290746</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>20.70702325581395</v>
+        <v>5.710102272727273</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>4.173162234586175</v>
+        <v>2.293558001601361</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>2.127473227780242</v>
+        <v>1.162542303417275</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.065325717801643</v>
+        <v>1.103495580362174</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.02876723649863</v>
+        <v>1.054936802239777</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.039468684657266</v>
+        <v>1.017395398399397</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.091144613644899</v>
+        <v>1.007918696037774</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>121.4743076923077</v>
+        <v>6.881403587443947</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>4.370585486263002</v>
+        <v>1.943305314316287</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.303823885665935</v>
+        <v>1.359299555179982</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.066830643429884</v>
+        <v>1.130931617382586</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.042047725086701</v>
+        <v>1.138282600563007</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.099550555373293</v>
+        <v>1.003968766516565</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.710102272727273</v>
+        <v>3.296488126649077</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>2.293558001601361</v>
+        <v>1.874587091563822</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.162542303417275</v>
+        <v>1.886576765407756</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.103495580362174</v>
+        <v>1.301787342600667</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.054936802239777</v>
+        <v>1.045827861222756</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>6.881403587443947</v>
+        <v>4.179504363001746</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.943305314316287</v>
+        <v>1.743005842522473</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.359299555179982</v>
+        <v>1.610949804611513</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.130931617382586</v>
+        <v>1.114390890391321</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3.296488126649077</v>
+        <v>3.848843111738701</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.874587091563822</v>
+        <v>1.495754861007867</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.886576765407756</v>
+        <v>2.068403029755689</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>4.200446771378709</v>
+        <v>3.920655021834062</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.739301395679675</v>
+        <v>1.196887309772823</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>3.848843111738701</v>
+        <v>5.323730858468677</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6569,7 +6569,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.09029784217994141</v>
+        <v>0.09122572529357141</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.08395122965737151</v>
+        <v>0.06643117090858632</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.04090164523737613</v>
+        <v>0.06567311812842189</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.07737739893917235</v>
+        <v>0.06156824237196114</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02884055527797071</v>
+        <v>0.02995920623848523</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01621376689883728</v>
+        <v>0.01400047857884946</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.006813388025086363</v>
+        <v>0.06042820811473257</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.07476238464555154</v>
+        <v>0.05918184579318542</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.05351519270103228</v>
+        <v>0.06355446748372268</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.654209118321429</v>
+        <v>4.476898726862052</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.468992294869404</v>
+        <v>4.668300269106464</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>5.077634019809265</v>
+        <v>4.358931439567675</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>3.739199214983953</v>
+        <v>4.236269771156254</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>12.1769206956837</v>
+        <v>11.33178076786548</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>17.18064988068933</v>
+        <v>17.31367405501481</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>24.23526526037423</v>
+        <v>4.575104178189368</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>3.781926003255496</v>
+        <v>4.364409664013813</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.408416617396609</v>
+        <v>4.297600605361964</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4202650404386326</v>
+        <v>0.4084083334238571</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.375177398483605</v>
+        <v>0.3101206530296109</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.2076835853234706</v>
+        <v>0.28626461934442</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.2893295093708534</v>
+        <v>0.2608196840235607</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3511891544393313</v>
+        <v>0.3394911570737824</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2785630523360333</v>
+        <v>0.2423997227284165</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.1651242661098253</v>
+        <v>0.2764653474262096</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.2827458065564008</v>
+        <v>0.2582938197139537</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2418004293547872</v>
+        <v>0.2729504286812494</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.63400972933999</v>
+        <v>1.585670334689325</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.641029969148343</v>
+        <v>1.780915850981534</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>2.404834848306757</v>
+        <v>1.774773082516348</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.860202891644827</v>
+        <v>1.467711094733919</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.89187744816725</v>
+        <v>1.833190218404682</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>2.06518964274975</v>
+        <v>2.096765296102589</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.732416587335054</v>
+        <v>1.757849736797439</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.852397933853261</v>
+        <v>1.478549337767721</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>2.132518869975792</v>
+        <v>1.621242088625134</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6867171649781901</v>
+        <v>0.6476009787501169</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6156773546587059</v>
+        <v>0.5522987866971786</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.4994447234071717</v>
+        <v>0.5080547408892652</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.5382115899698406</v>
+        <v>0.3828079439663751</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6644068413246963</v>
+        <v>0.6223518683825455</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5752855305371327</v>
+        <v>0.5082553264018338</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.4511882836900142</v>
+        <v>0.485984538206775</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.5237577478707507</v>
+        <v>0.3819001560875613</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.5181039911224544</v>
+        <v>0.4366270898723403</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.258518756449322</v>
+        <v>1.3088856294802</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.373014751882936</v>
+        <v>1.475845371595491</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.546418095073724</v>
+        <v>1.496126332986824</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.422457521784992</v>
+        <v>1.849275634669798</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.301721346132995</v>
+        <v>1.36530493384205</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.457365396266001</v>
+        <v>1.580229916085157</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.679648294062035</v>
+        <v>1.565265890673025</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.469472874668337</v>
+        <v>1.855309866591653</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.484437808429358</v>
+        <v>1.672700983828311</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8642464325007558</v>
+        <v>0.8476356147233401</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8453340903466653</v>
+        <v>0.8151076080848362</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7723503577659413</v>
+        <v>0.7601140764432271</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7655831244644596</v>
+        <v>0.7079174035350587</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8648725678691549</v>
+        <v>0.8497000764885071</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8384012251773452</v>
+        <v>0.8031602717898036</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7578376310007097</v>
+        <v>0.7606950210495464</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7696478033934462</v>
+        <v>0.7085431276421447</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7689518524847474</v>
+        <v>0.7330877991718511</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.061094527697241</v>
+        <v>1.079719962666339</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.076992158142331</v>
+        <v>1.106138664365337</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.136002278134848</v>
+        <v>1.1326305839921</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.099219809298737</v>
+        <v>1.190023055892266</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.064085742855555</v>
+        <v>1.080580978058342</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.087858615656438</v>
+        <v>1.119881510668667</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.151257778811123</v>
+        <v>1.130460298661379</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.100419280391548</v>
+        <v>1.182369950124858</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.117611043716793</v>
+        <v>1.161326819942183</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.917047160108415</v>
+        <v>0.9152090942837441</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9104181863137395</v>
+        <v>0.9016220409209854</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8773917659403745</v>
+        <v>0.8609284503025082</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8415441360761545</v>
+        <v>0.8424380318741087</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.920298568856441</v>
+        <v>0.918169739708199</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.9120619961860881</v>
+        <v>0.8994443384810222</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8724664677653604</v>
+        <v>0.8599355206858944</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8469352819651518</v>
+        <v>0.8377601024915535</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8590941579641567</v>
+        <v>0.8515828823054996</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.019551577494688</v>
+        <v>1.028744150490889</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.022028208270651</v>
+        <v>1.035952037867293</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.040489458664194</v>
+        <v>1.057425026091764</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.042140452408382</v>
+        <v>1.077255886968897</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.019078010394275</v>
+        <v>1.026565723878741</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.022339621616351</v>
+        <v>1.036957187721143</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.03994093146098</v>
+        <v>1.056924586879925</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.041917254608369</v>
+        <v>1.079682421341846</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.041314955536288</v>
+        <v>1.067340456530331</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.934976878725558</v>
+        <v>0.9415160022204665</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9304730677352472</v>
+        <v>0.9340371906781623</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9129168835797217</v>
+        <v>0.9103672890242713</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8770071866920248</v>
+        <v>0.9075213292428751</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9378560345189204</v>
+        <v>0.9425615834871026</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9324371160715392</v>
+        <v>0.9326852717429848</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9073135911563797</v>
+        <v>0.9088869949443124</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8824364838160963</v>
+        <v>0.9045148559616736</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8946018225570316</v>
+        <v>0.9089420814153851</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.023809371505967</v>
+        <v>1.019524298232531</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.024166366986565</v>
+        <v>1.023398245577571</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.03386425493191</v>
+        <v>1.035424193271021</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.05640662183844</v>
+        <v>1.040273816743704</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.022771779091538</v>
+        <v>1.019262183116845</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.024138455744754</v>
+        <v>1.024811283780003</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.034596163373469</v>
+        <v>1.034801831574736</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.053110300188124</v>
+        <v>1.040304906763085</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.045135438385175</v>
+        <v>1.037849005007362</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.957238090580624</v>
+        <v>0.9598984414385191</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9529592213612521</v>
+        <v>0.9558920222442339</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9438321336569103</v>
+        <v>0.9426163158182825</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9264761994213563</v>
+        <v>0.9440706769478052</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9592126849566508</v>
+        <v>0.9607173773071342</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9549447081325985</v>
+        <v>0.9558263906976293</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9387031603869946</v>
+        <v>0.9405179270628323</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9293029503685217</v>
+        <v>0.9409712428970342</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9350736374499288</v>
+        <v>0.9433429358326443</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.018738174233066</v>
+        <v>1.018580205113263</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.022741802717475</v>
+        <v>1.021777155572175</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.033340818904461</v>
+        <v>1.038400503388008</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.053023211312704</v>
+        <v>1.036243542876829</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.017868239903297</v>
+        <v>1.018011248454316</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.022171236145959</v>
+        <v>1.0221666781648</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.038164404688364</v>
+        <v>1.04032573635145</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.052279335122662</v>
+        <v>1.038291503999839</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.043182015108583</v>
+        <v>1.037322023132418</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.975174984704451</v>
+        <v>0.9777335513683485</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9746312319712483</v>
+        <v>0.9767086315228471</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9753002699013762</v>
+        <v>0.9788132568474537</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9756009427194661</v>
+        <v>0.9782871430065199</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9763521273297421</v>
+        <v>0.9780210966841923</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9761170127629403</v>
+        <v>0.9770138866816462</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9745282076822498</v>
+        <v>0.9784450050233804</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9778862907413163</v>
+        <v>0.9770024470081591</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9754505831405796</v>
+        <v>0.978550129211204</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.004675180272351</v>
+        <v>1.004872433111032</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.004871447095681</v>
+        <v>1.005021224051762</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.005823974732214</v>
+        <v>1.005008553547079</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.007997872007642</v>
+        <v>1.008399315215065</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.004693082710166</v>
+        <v>1.004891833643085</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.00480259653571</v>
+        <v>1.00508120666331</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.006354644506159</v>
+        <v>1.005653509476131</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.007727842032476</v>
+        <v>1.009135888884273</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.006910923369928</v>
+        <v>1.006703934381072</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9797341035550312</v>
+        <v>0.982497492697803</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9793790964555943</v>
+        <v>0.9816129043950135</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9809803940296029</v>
+        <v>0.983715695456965</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9834036741898715</v>
+        <v>0.9865040850914774</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9809342286175471</v>
+        <v>0.9828054131885988</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9808049089468834</v>
+        <v>0.9819782961527995</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9807209880032945</v>
+        <v>0.9839766531311532</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9854432415218896</v>
+        <v>0.9859282328036886</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9821905394206818</v>
+        <v>0.9851079171144674</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.005494060286513</v>
+        <v>1.006100563608422</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.005905259389003</v>
+        <v>1.006892178269187</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.00785888375183</v>
+        <v>1.008650488667829</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.008730956964153</v>
+        <v>1.006409090437696</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.004601322150489</v>
+        <v>1.005117008558252</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.004723898018187</v>
+        <v>1.005854562541968</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.006609611817893</v>
+        <v>1.007690401820503</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.006797536966347</v>
+        <v>1.006402151958454</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.008294920357992</v>
+        <v>1.007529789552762</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9851168217847149</v>
+        <v>0.9884912811471214</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9851625840603317</v>
+        <v>0.9883783555234381</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9886898049091059</v>
+        <v>0.992225316932881</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9919897293476135</v>
+        <v>0.9928266789899849</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9854478230118576</v>
+        <v>0.9878344368989816</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9854381313124859</v>
+        <v>0.9877273495024809</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9872031730356572</v>
+        <v>0.9915438289757256</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9921418283843713</v>
+        <v>0.9922402951702282</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9903370181977246</v>
+        <v>0.992525906871546</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.00246225733727</v>
+        <v>1.002672740145144</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002610566833036</v>
+        <v>1.002649757433451</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002754088910426</v>
+        <v>1.002160014153925</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.001871882451189</v>
+        <v>1.002600650542532</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.0025936726618</v>
+        <v>1.002782084306867</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.002745600469194</v>
+        <v>1.002744920898194</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.00325557508256</v>
+        <v>1.002177453391679</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.00182785328006</v>
+        <v>1.002568367412291</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.002312985680807</v>
+        <v>1.002380332348229</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9875424329072227</v>
+        <v>0.9911332614773677</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9877344168274279</v>
+        <v>0.9909973184180482</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9914127445366568</v>
+        <v>0.9943685376613389</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9938466175137387</v>
+        <v>0.9954086742313403</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9880037520900334</v>
+        <v>0.990582675583661</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9881437507081793</v>
+        <v>0.9904385829458477</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9904170870872161</v>
+        <v>0.9937028694491269</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9939553180796686</v>
+        <v>0.9947887328095054</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9926281890947776</v>
+        <v>0.9948883340857319</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.001970536975736</v>
+        <v>1.00160292252729</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001775786009948</v>
+        <v>1.001740320442483</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.001420829985729</v>
+        <v>1.001445662639461</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000894193748245</v>
+        <v>1.001795585998578</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.002103952615037</v>
+        <v>1.001748857175907</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001961976137927</v>
+        <v>1.001894595273899</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001692463279187</v>
+        <v>1.001631866296581</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000903259213177</v>
+        <v>1.002086735443852</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001157511866987</v>
+        <v>1.00162062431902</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9894884217863746</v>
+        <v>0.9927219713097366</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9894884217863746</v>
+        <v>0.9927219713097366</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9928213734923282</v>
+        <v>0.9958060591060914</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9947353089458344</v>
+        <v>0.997196016109653</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.99008246516791</v>
+        <v>0.9923150632041844</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.99008246516791</v>
+        <v>0.9923150632041844</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.992093331638191</v>
+        <v>0.9953244596705962</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9948531173782107</v>
+        <v>0.9968645937174035</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9937774196984644</v>
+        <v>0.9965005529168386</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.008382681180947</v>
+        <v>1.004874932879252</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.008382681180947</v>
+        <v>1.004874932879252</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.004010548086349</v>
+        <v>1.000751995576601</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.001409742169474</v>
+        <v>1.000037009071096</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.00762089566217</v>
+        <v>1.005529189023127</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.00762089566217</v>
+        <v>1.005529189023127</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00468807746403</v>
+        <v>1.00153542809524</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.001383326867773</v>
+        <v>1.000802262801737</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.002710145127911</v>
+        <v>1.000394502323849</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9977829877584481</v>
+        <v>0.9975614242876299</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9977829877584481</v>
+        <v>0.9975614242876299</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.996803131351874</v>
+        <v>0.9965549008576918</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9961376292583199</v>
+        <v>0.9972329214079101</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.997627780331899</v>
+        <v>0.9978017607591363</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.997627780331899</v>
+        <v>0.9978017607591363</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9967443420284583</v>
+        <v>0.9968527088098543</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.996229324424968</v>
+        <v>0.9976643410993116</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9964702691896425</v>
+        <v>0.9968937958467456</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000835251287091</v>
+        <v>1.001319745565175</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000835251287091</v>
+        <v>1.001319745565175</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.001133413791113</v>
+        <v>1.001856906696132</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000640183807615</v>
+        <v>1.002374909514401</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.000784808295286</v>
+        <v>1.001007188926007</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.000784808295286</v>
+        <v>1.001007188926007</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.001096016376228</v>
+        <v>1.001457984563194</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.00051975945732</v>
+        <v>1.002020752766891</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000886798799364</v>
+        <v>1.002115908105266</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9986163872832104</v>
+        <v>0.9988779515533235</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9986163872832104</v>
+        <v>0.9988779515533235</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9979329217679725</v>
+        <v>0.9984054103261578</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.996775340438727</v>
+        <v>0.9996012593610353</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9984107268895115</v>
+        <v>0.9988067356429234</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9984107268895115</v>
+        <v>0.9988067356429234</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9978367901502342</v>
+        <v>0.9983061046710774</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9967471240379976</v>
+        <v>0.9996803740770163</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9973537952160024</v>
+        <v>0.9990029769731912</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000324531489068</v>
+        <v>1.000461999783107</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000324531489068</v>
+        <v>1.000461999783107</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000609051709019</v>
+        <v>1.000738988263954</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000743164928839</v>
+        <v>1.000398899696485</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000373540292339</v>
+        <v>1.000469458727252</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000373540292339</v>
+        <v>1.000469458727252</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000622567153898</v>
+        <v>1.000782431212087</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.00077613872632</v>
+        <v>1.000319728116378</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000676108318929</v>
+        <v>1.000568943980219</v>
       </c>
     </row>
     <row r="16">
@@ -7599,47 +7599,47 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9989404697463831</v>
+        <v>0.9993394329502913</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9989404697463831</v>
+        <v>0.9993394329502913</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9985407145194615</v>
+        <v>0.9991432202070574</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.997516108913672</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9987836735243079</v>
+        <v>0.9992756341818091</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9987836735243079</v>
+        <v>0.9992756341818091</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9984580105607326</v>
+        <v>0.9990872105265887</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9975207380813118</v>
+        <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9980281487439312</v>
+        <v>0.9995714265069745</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000442896200462</v>
+        <v>1.0004531136629</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000442896200462</v>
+        <v>1.0004531136629</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000758713252672</v>
+        <v>1.000708740443385</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.001542558537427</v>
+        <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.000508191972311</v>
@@ -7651,10 +7651,10 @@
         <v>1.000762287958466</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.001524575916932</v>
+        <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.001150635895049</v>
+        <v>1.000354370221692</v>
       </c>
     </row>
     <row r="17">
@@ -7663,47 +7663,47 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9993828966849211</v>
+        <v>0.9997922473012357</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9993828966849211</v>
+        <v>0.9997922473012357</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9992983205929001</v>
+        <v>0.9998513534159519</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9990548359036976</v>
+        <v>1</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9992912473692682</v>
+        <v>0.9997834580372261</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9992912473692682</v>
+        <v>0.9997834580372261</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9992191230792171</v>
+        <v>0.9998488026766307</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9990415341752313</v>
+        <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9991765634148863</v>
+        <v>0.9999256711836135</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000191155183188</v>
+        <v>1.000207795868917</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000191155183188</v>
+        <v>1.000207795868917</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.000275806840693</v>
+        <v>1.00014866868314</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>1.000319497688917</v>
+        <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
         <v>1.000216588863351</v>
@@ -7712,13 +7712,13 @@
         <v>1.000216588863351</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000288785151135</v>
+        <v>1.000151220187457</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>1.000302440374914</v>
+        <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.000297652264805</v>
+        <v>1.00007433434157</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9993436846713819</v>
+        <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9993436846713819</v>
+        <v>1</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9993436846713819</v>
+        <v>1</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9995739339056121</v>
+        <v>1</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>0.9993740316148704</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9995076827246929</v>
+        <v>1</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>0.9993436846713819</v>
+        <v>1</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.999473972764752</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.000426247704082</v>
+        <v>1</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.000426247704082</v>
+        <v>1</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.000426247704082</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1.00062636046698</v>
+        <v>1</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.000492559770991</v>
+        <v>1</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.000492559770991</v>
+        <v>1</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.000492559770991</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1.000656746361322</v>
+        <v>1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.000526304085531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -8186,7 +8186,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="O41" sqref="O41"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>186908.8742</v>
+        <v>160471.8328</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>2899</v>
+        <v>4715</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>15149.27</v>
+        <v>12677.53</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>38044.10000000001</v>
+        <v>33596.91</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>40210.90000000001</v>
+        <v>36457.45</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>42426.14000000001</v>
+        <v>37557.45</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>43196.89000000001</v>
+        <v>38122.84</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>46248.00000000001</v>
+        <v>38447.84</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>46953.00000000001</v>
+        <v>38759.47</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>47083.00000000001</v>
+        <v>38849.47</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>47208.00000000001</v>
+        <v>39004.47</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>47273.00000000001</v>
+        <v>39069.47</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>47453.00000000001</v>
+        <v>39069.47</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>48619.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>48719.38</v>
+        <v>40469.47</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>33055.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>172213.4724</v>
+        <v>156240.3563</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>675</v>
+        <v>2160</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>15817.32</v>
+        <v>12342.37</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>23349.5</v>
+        <v>24742.14</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>30055.15</v>
+        <v>28323.72</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>30995.53</v>
+        <v>28943.72</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>31730.53</v>
+        <v>29298.72</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>32172.26</v>
+        <v>29558.72</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>32367.26</v>
+        <v>29688.72</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>32522.26</v>
+        <v>29913.72</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>32707.26</v>
+        <v>29928.72</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>32772.26</v>
+        <v>30058.72</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>32965.92000000001</v>
+        <v>30223.72</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30288.72</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30288.72</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30288.72</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30288.72</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>32990.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>33055.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>33055.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>33055.92000000001</v>
+        <v>30313.72</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>160471.8328</v>
+        <v>158393.6072</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>4715</v>
+        <v>2595</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>12677.53</v>
+        <v>20346.47</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>33596.91</v>
+        <v>30391.55</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>36457.45</v>
+        <v>31141.55</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>37557.45</v>
+        <v>31701.55</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>38122.84</v>
+        <v>31986.55</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>38447.84</v>
+        <v>32076.55</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>38759.47</v>
+        <v>32201.55</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>38849.47</v>
+        <v>32351.55</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>39004.47</v>
+        <v>32416.55</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>39069.47</v>
+        <v>32656.55</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>39069.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>40469.47</v>
+        <v>32721.55</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>156240.3563</v>
+        <v>150005.3691</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>2160</v>
+        <v>2610</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>12342.37</v>
+        <v>15686.18</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>24742.14</v>
+        <v>19986.89</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>28323.72</v>
+        <v>21881.89</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>28943.72</v>
+        <v>22696.89</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>29298.72</v>
+        <v>22956.89</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>29558.72</v>
+        <v>23311.89</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>29688.72</v>
+        <v>23756.89</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>29913.72</v>
+        <v>23821.89</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>29928.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>30058.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>30223.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>30288.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>30288.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>30288.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>30288.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>30313.72</v>
+        <v>24056.89</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>32721.55</v>
+        <v>28560.44</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>158393.6072</v>
+        <v>147637.074</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2595</v>
+        <v>5290</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>20346.47</v>
+        <v>18460</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>30391.55</v>
+        <v>24780.1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>31141.55</v>
+        <v>26728.43</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>31701.55</v>
+        <v>27298.43</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>31986.55</v>
+        <v>27428.43</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>32076.55</v>
+        <v>27648.43</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>32201.55</v>
+        <v>27778.43</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>32351.55</v>
+        <v>28093.43</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>32416.55</v>
+        <v>28158.43</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>32656.55</v>
+        <v>28158.43</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28158.43</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28363.43</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28429.55</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28469.55</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28534.55</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28560.44</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28560.44</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28560.44</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>32721.55</v>
+        <v>28560.44</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>24056.89</v>
+        <v>28442.01</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>150005.3691</v>
+        <v>140628.12</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>2610</v>
+        <v>4315</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>15686.18</v>
+        <v>18660.17</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>19986.89</v>
+        <v>25823.95</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>21881.89</v>
+        <v>26978.95</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>22696.89</v>
+        <v>27313.95</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>22956.89</v>
+        <v>27428.95</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>23311.89</v>
+        <v>27573.95</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>23756.89</v>
+        <v>27778.95</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>23821.89</v>
+        <v>27778.95</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>24056.89</v>
+        <v>27843.95</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>24056.89</v>
+        <v>27843.95</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>24056.89</v>
+        <v>27903.95</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28235.26</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28311.09</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28377.01</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28442.01</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28442.01</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28442.01</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>24056.89</v>
+        <v>28442.01</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>28560.44</v>
+        <v>27429.01</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>147637.074</v>
+        <v>151955.1463</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>5290</v>
+        <v>3515</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>18460</v>
+        <v>18385</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>24780.1</v>
+        <v>24350</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>26728.43</v>
+        <v>25101.99</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>27298.43</v>
+        <v>25411.99</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>27428.43</v>
+        <v>25526.99</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>27648.43</v>
+        <v>26987.03</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>27778.43</v>
+        <v>26987.03</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>28093.43</v>
+        <v>26987.03</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>28158.43</v>
+        <v>26987.03</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>28158.43</v>
+        <v>27207.26</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>28158.43</v>
+        <v>27297.3</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>28363.43</v>
+        <v>27429.01</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>28429.55</v>
+        <v>27429.01</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>28469.55</v>
+        <v>27429.01</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>28534.55</v>
+        <v>27429.01</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>28560.44</v>
+        <v>27429.01</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>28560.44</v>
+        <v>27429.01</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>28442.01</v>
+        <v>32961.61</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>140628.12</v>
+        <v>160297.9726</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>4315</v>
+        <v>7955</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>18660.17</v>
+        <v>21590</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>25823.95</v>
+        <v>29755</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>26978.95</v>
+        <v>31030</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>27313.95</v>
+        <v>31640.03</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>27428.95</v>
+        <v>32075.03</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>27573.95</v>
+        <v>32435.03</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>27778.95</v>
+        <v>32495.03</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>27778.95</v>
+        <v>32520.03</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>27843.95</v>
+        <v>32690.52</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>27843.95</v>
+        <v>32831.42</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>27903.95</v>
+        <v>32896.45</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>28235.26</v>
+        <v>32961.61</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>28311.09</v>
+        <v>32961.61</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>28377.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>28442.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>28442.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>27429.01</v>
+        <v>42129.92</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>151955.1463</v>
+        <v>161260.2412</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>3515</v>
+        <v>3925</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>18385</v>
+        <v>28380</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>24350</v>
+        <v>33483.31</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>25101.99</v>
+        <v>38913.37</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>25411.99</v>
+        <v>41260.42</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>25526.99</v>
+        <v>41410.42</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>26987.03</v>
+        <v>41320.92</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>26987.03</v>
+        <v>41485.92</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>26987.03</v>
+        <v>41751.33</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>26987.03</v>
+        <v>41933</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>27207.26</v>
+        <v>41999.22</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>27297.3</v>
+        <v>42064.33</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>27429.01</v>
+        <v>42064.33</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>27429.01</v>
+        <v>42129.92</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>27429.01</v>
+        <v>42129.92</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>27429.01</v>
+        <v>42129.92</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>32961.61</v>
+        <v>53513.37</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>160297.9726</v>
+        <v>171480.1265</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>7955</v>
+        <v>8980</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>21590</v>
+        <v>38056.89</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>29755</v>
+        <v>43294.79</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>31030</v>
+        <v>49757.5</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>31640.03</v>
+        <v>51907.5</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>32075.03</v>
+        <v>51907.5</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>32435.03</v>
+        <v>52038.25</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>32495.03</v>
+        <v>52298.25</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>32520.03</v>
+        <v>52745.23</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>32690.52</v>
+        <v>53255.34</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>32831.42</v>
+        <v>53346.37</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>32896.45</v>
+        <v>53346.37</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>32961.61</v>
+        <v>53462.09</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>32961.61</v>
+        <v>53462.09</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>32961.61</v>
+        <v>53513.37</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>42129.92</v>
+        <v>76126.62999999999</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>161260.2412</v>
+        <v>180826.7985</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>3925</v>
+        <v>4905.13</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>28380</v>
+        <v>16610.17</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>33483.31</v>
+        <v>36683.58</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>38913.37</v>
+        <v>73136.03</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>41260.42</v>
+        <v>73583.74000000001</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>41410.42</v>
+        <v>73753.74000000001</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>41320.92</v>
+        <v>74191.05</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>41485.92</v>
+        <v>74619.27</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>41751.33</v>
+        <v>74619.27</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>41933</v>
+        <v>75780.25</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>41999.22</v>
+        <v>75937.2</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>42064.33</v>
+        <v>76025.25</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>42064.33</v>
+        <v>75785.37</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>42129.92</v>
+        <v>76126.62999999999</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>53462.09</v>
+        <v>38555.45</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>171480.1265</v>
+        <v>193503.087</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>8980</v>
+        <v>930</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>38056.89</v>
+        <v>25515.03</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>43294.79</v>
+        <v>34110.03</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>49757.5</v>
+        <v>34325.03</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>51907.5</v>
+        <v>34500.15</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>51907.5</v>
+        <v>35393.51</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>52038.25</v>
+        <v>35896.73</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>52298.25</v>
+        <v>38100.08</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>52745.23</v>
+        <v>38100.08</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>53255.34</v>
+        <v>38165.08</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>53346.37</v>
+        <v>38230.08</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>53346.37</v>
+        <v>38425.08</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>53462.09</v>
+        <v>38555.45</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>76025.25</v>
+        <v>43469.28</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>180826.7985</v>
+        <v>190226.5803</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>4905.13</v>
+        <v>8600</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>16610.17</v>
+        <v>31695.03</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>36683.58</v>
+        <v>32310.03</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>73136.03</v>
+        <v>34127.2</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>73583.74000000001</v>
+        <v>39045.11</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>73753.74000000001</v>
+        <v>41245.31</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>74191.05</v>
+        <v>42404.96</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>74619.27</v>
+        <v>42856.33</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>74619.27</v>
+        <v>43135.47</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>75780.25</v>
+        <v>43270.47</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>75937.2</v>
+        <v>43469.28</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>76025.25</v>
+        <v>43469.28</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>38230.08</v>
+        <v>43659.90999999999</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>193503.087</v>
+        <v>197897.4034</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>930</v>
+        <v>6245</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>25515.03</v>
+        <v>8125.03</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>34110.03</v>
+        <v>12232.82</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>34325.03</v>
+        <v>27379.18</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>34500.15</v>
+        <v>38247.71</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>35393.51</v>
+        <v>39459.6</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>35896.73</v>
+        <v>40261.09</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>38100.08</v>
+        <v>42477.67999999999</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>38100.08</v>
+        <v>43185.94999999999</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>38165.08</v>
+        <v>43598.54999999999</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>38230.08</v>
+        <v>43659.90999999999</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>43295.47</v>
+        <v>49962.37</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>190226.5803</v>
+        <v>203071.6615</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>8600</v>
+        <v>215</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>31720.03</v>
+        <v>4452.01</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>32335.03</v>
+        <v>18578.96</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>34152.2</v>
+        <v>39526.24</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>39070.11</v>
+        <v>42108.32</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>41270.31</v>
+        <v>43319.66</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>42429.96</v>
+        <v>45029.42999999999</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>42881.33</v>
+        <v>49133.62</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>43160.47</v>
+        <v>49638.59</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>43295.47</v>
+        <v>49962.37</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>43185.94999999999</v>
+        <v>55894.06999999999</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>197897.4034</v>
+        <v>198087.8535</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>6245</v>
+        <v>65</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>8125.03</v>
+        <v>7895.83</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>12232.82</v>
+        <v>34509.4</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>27379.18</v>
+        <v>44994.18</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>38247.71</v>
+        <v>48001.17</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>39459.6</v>
+        <v>50019.50999999999</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>40261.09</v>
+        <v>54998.98</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>42477.67999999999</v>
+        <v>55868.57999999999</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>43185.94999999999</v>
+        <v>55894.06999999999</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>49133.62</v>
+        <v>47982.03</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>203071.6615</v>
+        <v>203918.7383</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>215</v>
+        <v>2640</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>4452.01</v>
+        <v>15074.67</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>18578.96</v>
+        <v>34574.63</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>39526.24</v>
+        <v>40194.47</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>42108.32</v>
+        <v>44354.42</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>43319.66</v>
+        <v>46791.11</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>45029.42999999999</v>
+        <v>47605.06</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>49133.62</v>
+        <v>47982.03</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>54998.98</v>
+        <v>52389.56</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>198087.8535</v>
+        <v>198109.2594</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>65</v>
+        <v>2230</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>7895.83</v>
+        <v>15345.53</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>34509.4</v>
+        <v>29821.05</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>44994.18</v>
+        <v>40535.74000000001</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>48001.17</v>
+        <v>45843.15000000001</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>50019.50999999999</v>
+        <v>52182.46000000001</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>54998.98</v>
+        <v>52389.56</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>46791.11</v>
+        <v>60154.91</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>203918.7383</v>
+        <v>193529.1439</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>2640</v>
+        <v>3790</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>15074.67</v>
+        <v>12493.69</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>34574.63</v>
+        <v>23420.51</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>40194.47</v>
+        <v>44184.59</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>44354.42</v>
+        <v>57518.94</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>46791.11</v>
+        <v>60154.91</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>45843.15000000001</v>
+        <v>37468.63</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>198109.2594</v>
+        <v>191031.0336</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>2230</v>
+        <v>2865</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>15345.53</v>
+        <v>11974.28</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>29821.05</v>
+        <v>20871.24</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>40535.74000000001</v>
+        <v>33622.52</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>45843.15000000001</v>
+        <v>37468.63</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>44184.59</v>
+        <v>38706.15</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>193529.1439</v>
+        <v>187676.6539</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>3790</v>
+        <v>3250.53</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>12493.69</v>
+        <v>12510.78</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>23420.51</v>
+        <v>18713.06</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>44184.59</v>
+        <v>38706.15</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>20931.24</v>
+        <v>16119.02</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>191031.0336</v>
+        <v>184637.641</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>2865</v>
+        <v>3435</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>12034.28</v>
+        <v>13467.45</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>20931.24</v>
+        <v>16119.02</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>12510.78</v>
+        <v>11472.64</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>187676.6539</v>
+        <v>171913.5757</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>3250.53</v>
+        <v>2155</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>12510.78</v>
+        <v>11472.64</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>3435</v>
+        <v>1535</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>184637.641</v>
+        <v>170289.106</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>30</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>3435</v>
+        <v>1535</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
@@ -11800,21 +11800,7 @@
       <c r="H35" s="26" t="n">
         <v>0.075</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Previous Quarter</t>
-        </is>
-      </c>
-      <c r="J35" s="25" t="inlineStr">
-        <is>
-          <t>Liability Change</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Annzd Prem Change</t>
-        </is>
-      </c>
+      <c r="J35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="C36" s="22" t="n"/>
@@ -11825,10 +11811,7 @@
         <v/>
       </c>
       <c r="I36" s="28" t="n"/>
-      <c r="J36" s="29">
-        <f>(H36-I36)/I36</f>
-        <v/>
-      </c>
+      <c r="J36" s="29" t="n"/>
       <c r="K36" s="29" t="n"/>
     </row>
     <row r="37">

--- a/Process Results/Unified_IBNP_PHS.xlsx
+++ b/Process Results/Unified_IBNP_PHS.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06156824237196114</v>
+        <v>0.09873435008866722</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06567311812842189</v>
+        <v>0.06812571844127679</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06643117090858632</v>
+        <v>0.05867902993291581</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.06355446748372268</v>
+        <v>0.08062262701775066</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2608196840235607</v>
+        <v>0.4852527217173273</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.28626461934442</v>
+        <v>0.3359441851440951</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3101206530296109</v>
+        <v>0.2752788362506942</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2729504286812494</v>
+        <v>0.3970249493737834</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3828079439663751</v>
+        <v>0.7566161926985188</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5080547408892652</v>
+        <v>0.5263118175907189</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5522987866971786</v>
+        <v>0.505837838598817</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4366270898723403</v>
+        <v>0.6207925002868223</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7079174035350587</v>
+        <v>0.8938555000097819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7601140764432271</v>
+        <v>0.7833604130054997</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8151076080848362</v>
+        <v>0.7568274086879875</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7330877991718511</v>
+        <v>0.8349682449602663</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8424380318741087</v>
+        <v>0.936706565831855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8609284503025082</v>
+        <v>0.8840023733287998</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9016220409209854</v>
+        <v>0.8695317876181093</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8515828823054996</v>
+        <v>0.9095916535564</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9075213292428751</v>
+        <v>0.9549727134159215</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9103672890242713</v>
+        <v>0.9135866174992276</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9340371906781623</v>
+        <v>0.9103564783572919</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9089420814153851</v>
+        <v>0.9338213420565222</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9440706769478052</v>
+        <v>0.9681658396343579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9426163158182825</v>
+        <v>0.9247699841289325</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9558920222442339</v>
+        <v>0.9331148814745337</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9433429358326443</v>
+        <v>0.9459704834291308</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9782871430065199</v>
+        <v>0.9755996050743376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9788132568474537</v>
+        <v>0.9615651864064663</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9767086315228471</v>
+        <v>0.9680469053851225</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.978550129211204</v>
+        <v>0.9685315572912904</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9865040850914774</v>
+        <v>0.9840679159150929</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.983715695456965</v>
+        <v>0.9689285521094405</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9816129043950135</v>
+        <v>0.97490788241572</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9851079171144674</v>
+        <v>0.9764395548645588</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9928266789899849</v>
+        <v>0.9873959318174498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.992225316932881</v>
+        <v>0.9784647905507653</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9883783555234381</v>
+        <v>0.983830272187179</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.992525906871546</v>
+        <v>0.9829100735606209</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9954086742313403</v>
+        <v>0.9910272510278159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9943685376613389</v>
+        <v>0.9824506582011168</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9909973184180482</v>
+        <v>0.987125926105167</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9948883340857319</v>
+        <v>0.9867203179871774</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.997196016109653</v>
+        <v>0.9961708552229285</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9958060591060914</v>
+        <v>0.9876212998749566</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9927219713097366</v>
+        <v>0.990744839498348</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9965005529168386</v>
+        <v>0.9918776545260316</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9972329214079101</v>
+        <v>0.9991051432104762</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9965549008576918</v>
+        <v>0.992555585728178</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9975614242876299</v>
+        <v>0.9940701769673458</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9968937958467456</v>
+        <v>0.9958195953903894</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9996012593610353</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9984054103261578</v>
+        <v>0.9977852422035618</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9988779515533235</v>
+        <v>0.9976427709355435</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9990029769731912</v>
+        <v>0.9987402158659372</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9991432202070574</v>
+        <v>0.9982418725219138</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9993394329502913</v>
+        <v>0.9981130848941299</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9995714265069745</v>
+        <v>0.9989689159905956</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9998513534159519</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9997922473012357</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9999256711836135</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4833,49 +4833,49 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>2.688765641569459</v>
+        <v>4.32448899188876</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>2.650114809430544</v>
+        <v>1.383907542107065</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.085142949158122</v>
+        <v>1.044725923028816</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.030172159599753</v>
+        <v>1.012417088137233</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.015054003932642</v>
+        <v>1.004210302793994</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.008525073158243</v>
+        <v>1.005286385370202</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.008105266771813</v>
+        <v>1.007434553264948</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.002322013175103</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1.003989758418841</v>
+        <v>1.002339901256167</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1.001666475662918</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>1.002154866676603</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.03583360613799</v>
+        <v>1.011873229417341</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.002685649078493</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>1.00232841617896</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1</v>
+        <v>1.002290586640382</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1</v>
+        <v>1.008965962672821</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>1</v>
@@ -4908,52 +4908,52 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.714060185185186</v>
+        <v>5.223328591749645</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>2.004650646512784</v>
+        <v>1.324891067538126</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.144756274113719</v>
+        <v>1.030914285714286</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.021889780014772</v>
+        <v>1.012361930199757</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.012265182222603</v>
+        <v>1.004529879280687</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.008874107810853</v>
+        <v>1.057252002686849</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1.004398025354278</v>
+        <v>1</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1.007578635926372</v>
+        <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.000501442147617</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.004343653854892</v>
+        <v>1.008168153510696</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.005489255696849</v>
+        <v>1.00331245451997</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.002150628711489</v>
+        <v>1.00482944232793</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>1.000825389782071</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R39" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -4983,40 +4983,40 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>7.840643545279384</v>
+        <v>2.714016341923319</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.493701364413581</v>
+        <v>1.378184344603983</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.024677912117019</v>
+        <v>1.042849941186355</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.017982406142276</v>
+        <v>1.019659361907831</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.008990096698742</v>
+        <v>1.013748406686087</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.002813682625979</v>
+        <v>1.011223683968495</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.003896927817985</v>
+        <v>1.001849851842283</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.004658160864927</v>
+        <v>1.000769348420358</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.002009177303715</v>
+        <v>1.005242615089839</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.007403625617162</v>
+        <v>1.004310118040337</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.001990412336882</v>
+        <v>1.00198072456202</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.001980760841976</v>
       </c>
       <c r="N40" s="4" t="n">
         <v>1</v>
@@ -5058,43 +5058,43 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>6.010030651340997</v>
+        <v>7.230573248407643</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.274171914385784</v>
+        <v>1.179820648343904</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.094812149363908</v>
+        <v>1.162172138895468</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.037245411616638</v>
+        <v>1.060314745291914</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.011455313921863</v>
+        <v>1.003635445300848</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.015463767086918</v>
+        <v>0.9978387082285087</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.019088971336086</v>
+        <v>1.003993134712393</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.002736048363233</v>
+        <v>1.006397592243344</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.009864876380506</v>
+        <v>1.004351238631201</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>1.001579185844085</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.001550266885909</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>1.00155927837196</v>
       </c>
       <c r="O41" s="4" t="n">
         <v>1</v>
@@ -5133,52 +5133,52 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>3.489603024574669</v>
+        <v>4.233620267260579</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.342367280606717</v>
+        <v>1.13777453836889</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.078624783596515</v>
+        <v>1.149406750214595</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.021325607227959</v>
+        <v>1.043243443288336</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.004762178630786</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.008020874690968</v>
+        <v>1.002520796814715</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.004701894465617</v>
+        <v>1.005000070193293</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.011339733743052</v>
+        <v>1.008553123685042</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.002313708222883</v>
+        <v>1.009678358828412</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1</v>
+        <v>1.00171056419492</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.007280235439263</v>
+        <v>1.002170805961425</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1.002331170806916</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.001406986744426</v>
+        <v>1.000959884214903</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.002283141110414</v>
+        <v>1.000937832109913</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>1.000907321124742</v>
+        <v>1</v>
       </c>
       <c r="R42" s="4" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>1</v>
+        <v>1.000728264082232</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>4.32448899188876</v>
+        <v>3.386285378776914</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.383907542107065</v>
+        <v>2.20850117729078</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.044725923028816</v>
+        <v>1.993699360858455</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.012417088137233</v>
+        <v>1.006121606546049</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.004210302793994</v>
+        <v>1.002310293007667</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.005286385370202</v>
+        <v>1.005929326431446</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.007434553264948</v>
+        <v>1.005771855230516</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.002339901256167</v>
+        <v>1.015558715597191</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.00207112011375</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.002154866676603</v>
+        <v>1.001159510753623</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.011873229417341</v>
+        <v>0.9968447325066343</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.002685649078493</v>
+        <v>1.004502979928712</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.00232841617896</v>
+        <v>1.001182240695536</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.002290586640382</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,43 +5283,43 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.230440967283073</v>
+        <v>27.43551612903226</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.32444927930378</v>
+        <v>1.336860274120783</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.030882546201232</v>
+        <v>1.006303131366346</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.012349618496382</v>
+        <v>1.005101816371319</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.004525422841737</v>
+        <v>1.025894380169362</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.057195932618769</v>
+        <v>1.01421786084511</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.061380242712916</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.001706033163185</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.008160586770756</v>
+        <v>1.001703127571067</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.003309410796971</v>
+        <v>1.005100695577932</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.004825019324255</v>
+        <v>1.003392836137231</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>1.028919387531464</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
@@ -5358,43 +5358,43 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>2.714016341923319</v>
+        <v>3.682561627906977</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.378184344603983</v>
+        <v>1.019418990130417</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.042849941186355</v>
+        <v>1.056285219496466</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.019659361907831</v>
+        <v>1.144210930673095</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.013748406686087</v>
+        <v>1.056386309520911</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.011223683968495</v>
+        <v>1.028132976195473</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.001849851842283</v>
+        <v>1.010650552761258</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.000769348420358</v>
+        <v>1.006517191971391</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.005242615089839</v>
+        <v>1.003131489867775</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.004310118040337</v>
+        <v>1.00459724452064</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1.00198072456202</v>
+        <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.001980760841976</v>
+        <v>1.018389532523039</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1</v>
+        <v>1.002034210906987</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
@@ -5433,43 +5433,43 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>7.230573248407643</v>
+        <v>1.301045636509207</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.179820648343904</v>
+        <v>1.505572287117709</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.162172138895468</v>
+        <v>2.238174026921021</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.060314745291914</v>
+        <v>1.396963312999147</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.003635445300848</v>
+        <v>1.031685295668682</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0.9978387082285087</v>
+        <v>1.020311660533812</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.003993134712393</v>
+        <v>1.055055389707531</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.006397592243344</v>
+        <v>1.016673933227992</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.004351238631201</v>
+        <v>1.009554033198297</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.001579185844085</v>
+        <v>1.001407386254818</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.001550266885909</v>
+        <v>1.008847475865159</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.000577575495179</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.00155927837196</v>
+        <v>1.001475552413196</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>4.237961024498887</v>
+        <v>20.70702325581395</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>1.137633421963802</v>
+        <v>4.173162234586175</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.149272233448875</v>
+        <v>2.127473227780242</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.043209566397026</v>
+        <v>1.065325717801643</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.02876723649863</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.002518903819294</v>
+        <v>1.039468684657266</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.004996324818763</v>
+        <v>1.091144613644899</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.00854674869618</v>
+        <v>1.010277484134082</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.009671206287279</v>
+        <v>1.006522747725106</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.001709312155363</v>
+        <v>1.008148532585624</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.006935547689683</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.002169219761345</v>
+        <v>1.005969577768257</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.000959184349134</v>
+        <v>1</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>3.386285378776914</v>
+        <v>121.4743076923077</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>2.20850117729078</v>
+        <v>4.370585486263002</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.993699360858455</v>
+        <v>1.303823885665935</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.006121606546049</v>
+        <v>1.066830643429884</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.002310293007667</v>
+        <v>1.042047725086701</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.005929326431446</v>
+        <v>1.099050750397195</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.005771855230516</v>
+        <v>1.015818392628658</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1</v>
+        <v>1.000456453543988</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.015558715597191</v>
+        <v>1.0018860167173</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.00207112011375</v>
+        <v>1.00376064503727</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.001159510753623</v>
+        <v>1.011217596743896</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>0.9968447325066343</v>
+        <v>1.001144060040271</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.004502979928712</v>
+        <v>1.000439520254851</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>27.43551612903226</v>
+        <v>5.685897727272727</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.336860274120783</v>
+        <v>2.297399134088391</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.006303131366346</v>
+        <v>1.162236380091128</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.005101816371319</v>
+        <v>1.103789691613667</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.025894380169362</v>
+        <v>1.055078240490844</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.01421786084511</v>
+        <v>1.017437846006648</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.061380242712916</v>
+        <v>1.007937687771787</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.013008028515006</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.001706033163185</v>
+        <v>1.044466785452086</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.001703127571067</v>
+        <v>1.010339796825204</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.005100695577932</v>
+        <v>1.001954242964383</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.003392836137231</v>
+        <v>1.001950431347645</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>3.685468604651163</v>
+        <v>6.881403587443947</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.019403673067986</v>
+        <v>1.943305314316287</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.056241668608788</v>
+        <v>1.359299555179982</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.144105288450268</v>
+        <v>1.130931617382586</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.056350206210201</v>
+        <v>1.138282600563007</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.028115923968083</v>
+        <v>1.003968766516565</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.010644273688738</v>
+        <v>1.103603847789521</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.006513390203968</v>
+        <v>1.007372012400436</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.003129674951959</v>
+        <v>1.00609509550843</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.004594588410988</v>
+        <v>1.002133158584982</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.002243052404018</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>1.301045636509207</v>
+        <v>3.296488126649077</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.505572287117709</v>
+        <v>1.874587091563822</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>2.238174026921021</v>
+        <v>1.886576765407756</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.396963312999147</v>
+        <v>1.301787342600667</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.031685295668682</v>
+        <v>1.045827861222756</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.020311660533812</v>
+        <v>1.017220871912201</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.055055389707531</v>
+        <v>1.078228551565651</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.016673933227992</v>
+        <v>1.015838684888985</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.009554033198297</v>
+        <v>1.001715836574772</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.001407386254818</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>20.70702325581395</v>
+        <v>4.179504363001746</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>4.173162234586175</v>
+        <v>1.743005842522473</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>2.127473227780242</v>
+        <v>1.610949804611513</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.065325717801643</v>
+        <v>1.114390890391321</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.02876723649863</v>
+        <v>1.046008887968415</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.039468684657266</v>
+        <v>1.010553034099364</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.091144613644899</v>
+        <v>1.013134081298547</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.010277484134082</v>
+        <v>1.004859654426236</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.006522747725106</v>
+        <v>1.002232070337</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>121.4743076923077</v>
+        <v>3.848843111738701</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>4.370585486263002</v>
+        <v>1.490559341623784</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.303823885665935</v>
+        <v>2.072127073808214</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.066830643429884</v>
+        <v>1.309910031145553</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.042047725086701</v>
+        <v>1.038098498847114</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.099550555373293</v>
+        <v>1.002194887262003</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.015811202316843</v>
+        <v>1.004177730531443</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.000456249290746</v>
+        <v>1.002647495270911</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>5.710102272727273</v>
+        <v>3.920655021834062</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>2.293558001601361</v>
+        <v>1.196887309772823</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.162542303417275</v>
+        <v>1.914425939045922</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.103495580362174</v>
+        <v>1.15952145701678</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.054936802239777</v>
+        <v>1.027978868285632</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.017395398399397</v>
+        <v>1.033032093329393</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.007918696037774</v>
+        <v>1.006842571638435</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>6.881403587443947</v>
+        <v>5.323730858468677</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.943305314316287</v>
+        <v>1.603458314738369</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.359299555179982</v>
+        <v>1.84325692137922</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.130931617382586</v>
+        <v>1.064331019155447</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.138282600563007</v>
+        <v>1.015385540429369</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.003968766516565</v>
+        <v>1.011188432579733</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>3.296488126649077</v>
+        <v>6.489035830618893</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.874587091563822</v>
+        <v>2.063039936068558</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.886576765407756</v>
+        <v>1.368631765815411</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.301787342600667</v>
+        <v>1.048192368397941</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.045827861222756</v>
+        <v>1.014247067902543</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>4.179504363001746</v>
+        <v>4.058525862068965</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.743005842522473</v>
+        <v>1.922809014937336</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.610949804611513</v>
+        <v>1.142879289114604</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.114390890391321</v>
+        <v>1.029802840516785</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>3.848843111738701</v>
+        <v>8.645298165137616</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.495754861007867</v>
+        <v>1.665057370634194</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>2.068403029755689</v>
+        <v>1.09209417697123</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3.920655021834062</v>
+        <v>3.710129285014691</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.196887309772823</v>
+        <v>1.182779916378963</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>5.323730858468677</v>
+        <v>4.504140786749482</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.09122572529357141</v>
+        <v>0.08240707207021071</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.06643117090858632</v>
+        <v>0.05867902993291581</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.06567311812842189</v>
+        <v>0.06812571844127679</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.06156824237196114</v>
+        <v>0.09873435008866722</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02995920623848523</v>
+        <v>0.02683274774443435</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.01400047857884946</v>
+        <v>0.04898725911510197</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06042820811473257</v>
+        <v>0.05745663308376626</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.05918184579318542</v>
+        <v>0.08319989382492023</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.06355446748372268</v>
+        <v>0.08062262701775066</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.476898726862052</v>
+        <v>4.534679294413515</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.668300269106464</v>
+        <v>4.691264265367098</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.358931439567675</v>
+        <v>4.931238786621726</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>4.236269771156254</v>
+        <v>4.914730499380933</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>11.33178076786548</v>
+        <v>11.40245303859024</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>17.31367405501481</v>
+        <v>5.045304393833215</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>4.575104178189368</v>
+        <v>5.455143464676389</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>4.364409664013813</v>
+        <v>5.619856078967263</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.297600605361964</v>
+        <v>4.92298464300133</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4084083334238571</v>
+        <v>0.3736896434300268</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.3101206530296109</v>
+        <v>0.2752788362506942</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.28626461934442</v>
+        <v>0.3359441851440951</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.2608196840235607</v>
+        <v>0.4852527217173273</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3394911570737824</v>
+        <v>0.3059591460522508</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2423997227284165</v>
+        <v>0.2471556336552702</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.2764653474262096</v>
+        <v>0.3134341764692167</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.2582938197139537</v>
+        <v>0.4675714290814088</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.2729504286812494</v>
+        <v>0.3970249493737834</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.585670334689325</v>
+        <v>1.575410188059845</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.780915850981534</v>
+        <v>1.837547141249008</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.774773082516348</v>
+        <v>1.566664466494546</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.467711094733919</v>
+        <v>1.559220914868496</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.833190218404682</v>
+        <v>1.818253053505265</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>2.096765296102589</v>
+        <v>1.946122839409</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.757849736797439</v>
+        <v>1.605671977088374</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.478549337767721</v>
+        <v>1.590215433983498</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.621242088625134</v>
+        <v>1.562942690681521</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6476009787501169</v>
+        <v>0.5887144714321149</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.5522987866971786</v>
+        <v>0.505837838598817</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.5080547408892652</v>
+        <v>0.5263118175907189</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.3828079439663751</v>
+        <v>0.7566161926985188</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6223518683825455</v>
+        <v>0.5563111515573683</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.5082553264018338</v>
+        <v>0.480995223545125</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.485984538206775</v>
+        <v>0.5032724738183935</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.3819001560875613</v>
+        <v>0.7435393030149767</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.4366270898723403</v>
+        <v>0.6207925002868223</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.3088856294802</v>
+        <v>1.379141803988289</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.475845371595491</v>
+        <v>1.496185834544165</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.496126332986824</v>
+        <v>1.488396017006542</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.849275634669798</v>
+        <v>1.181385633344418</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.36530493384205</v>
+        <v>1.45753836012157</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.580229916085157</v>
+        <v>1.573647898739263</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.565265890673025</v>
+        <v>1.572235861022434</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.855309866591653</v>
+        <v>1.201201743967082</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.672700983828311</v>
+        <v>1.33489082517548</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8476356147233401</v>
+        <v>0.8119207381648992</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8151076080848362</v>
+        <v>0.7568274086879875</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7601140764432271</v>
+        <v>0.7833604130054997</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7079174035350587</v>
+        <v>0.8938555000097819</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8497000764885071</v>
+        <v>0.8108448435582688</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.8031602717898036</v>
+        <v>0.756917122835408</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7606950210495464</v>
+        <v>0.791263031202752</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7085431276421447</v>
+        <v>0.8931407074896583</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7330877991718511</v>
+        <v>0.8349682449602663</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.079719962666339</v>
+        <v>1.101528439788265</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.106138664365337</v>
+        <v>1.148916883342667</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.1326305839921</v>
+        <v>1.128474656942606</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.190023055892266</v>
+        <v>1.047939589588702</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.080580978058342</v>
+        <v>1.104760392743347</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.119881510668667</v>
+        <v>1.149314744370952</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.130460298661379</v>
+        <v>1.121024767770638</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.182369950124858</v>
+        <v>1.047442076023391</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.161326819942183</v>
+        <v>1.088207123265654</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.9152090942837441</v>
+        <v>0.8943537839425177</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9016220409209854</v>
+        <v>0.8695317876181093</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8609284503025082</v>
+        <v>0.8840023733287998</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.8424380318741087</v>
+        <v>0.936706565831855</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.918169739708199</v>
+        <v>0.8957892678233511</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8994443384810222</v>
+        <v>0.8699360095415735</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8599355206858944</v>
+        <v>0.8870254557995558</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.8377601024915535</v>
+        <v>0.9355131568339681</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8515828823054996</v>
+        <v>0.9095916535564</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.028744150490889</v>
+        <v>1.03235666488664</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.035952037867293</v>
+        <v>1.046950199314752</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.057425026091764</v>
+        <v>1.033466249710423</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.077255886968897</v>
+        <v>1.01950039452093</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.026565723878741</v>
+        <v>1.031269623143329</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.036957187721143</v>
+        <v>1.044982844373717</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.056924586879925</v>
+        <v>1.031257787442638</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.079682421341846</v>
+        <v>1.019203825539181</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.067340456530331</v>
+        <v>1.026483322115676</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9415160022204665</v>
+        <v>0.9232920896196444</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9340371906781623</v>
+        <v>0.9103564783572919</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9103672890242713</v>
+        <v>0.9135866174992276</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9075213292428751</v>
+        <v>0.9549727134159215</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9425615834871026</v>
+        <v>0.9238002606440259</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9326852717429848</v>
+        <v>0.9090682056738743</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9088869949443124</v>
+        <v>0.9147519089531476</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9045148559616736</v>
+        <v>0.9534785882874164</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9089420814153851</v>
+        <v>0.9338213420565222</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.019524298232531</v>
+        <v>1.020089722067591</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.023398245577571</v>
+        <v>1.024999441052266</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.035424193271021</v>
+        <v>1.012241167302031</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.040273816743704</v>
+        <v>1.013815186583965</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.019262183116845</v>
+        <v>1.020934931546388</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.024811283780003</v>
+        <v>1.024731488694564</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.034801831574736</v>
+        <v>1.013026347616543</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.040304906763085</v>
+        <v>1.015471804390377</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.037849005007362</v>
+        <v>1.013028176942998</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9598984414385191</v>
+        <v>0.941840771087308</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9558920222442339</v>
+        <v>0.9331148814745337</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9426163158182825</v>
+        <v>0.9247699841289325</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9440706769478052</v>
+        <v>0.9681658396343579</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9607173773071342</v>
+        <v>0.9431399558631437</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9558263906976293</v>
+        <v>0.9315508157250849</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9405179270628323</v>
+        <v>0.9266677853020678</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9409712428970342</v>
+        <v>0.9682306224958117</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9433429358326443</v>
+        <v>0.9459704834291308</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.018580205113263</v>
+        <v>1.029508541336791</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.021777155572175</v>
+        <v>1.037435930563435</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.038400503388008</v>
+        <v>1.039788491094023</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.036243542876829</v>
+        <v>1.007678194308929</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.018011248454316</v>
+        <v>1.027766066311417</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.0221666781648</v>
+        <v>1.037812126440097</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.04032573635145</v>
+        <v>1.035654078432564</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.038291503999839</v>
+        <v>1.008051461156142</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.037322023132418</v>
+        <v>1.023733342701476</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9777335513683485</v>
+        <v>0.9696331184136125</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9767086315228471</v>
+        <v>0.9680469053851225</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9788132568474537</v>
+        <v>0.9615651864064663</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9782871430065199</v>
+        <v>0.9755996050743376</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9780210966841923</v>
+        <v>0.9693272424185863</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9770138866816462</v>
+        <v>0.9667747329546574</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9784450050233804</v>
+        <v>0.9597072712001584</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9770024470081591</v>
+        <v>0.9760262937430239</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.978550129211204</v>
+        <v>0.9685315572912904</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.004872433111032</v>
+        <v>1.006256755519044</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.005021224051762</v>
+        <v>1.007087442759675</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.005008553547079</v>
+        <v>1.007657687494378</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.008399315215065</v>
+        <v>1.008680108926561</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.004891833643085</v>
+        <v>1.005835687670486</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.00508120666331</v>
+        <v>1.007183671838672</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.005653509476131</v>
+        <v>1.007363721507594</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.009135888884273</v>
+        <v>1.007781944862044</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.006703934381072</v>
+        <v>1.00816889821047</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.982497492697803</v>
+        <v>0.9756998757786948</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9816129043950135</v>
+        <v>0.97490788241572</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.983715695456965</v>
+        <v>0.9689285521094405</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9865040850914774</v>
+        <v>0.9840679159150929</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9828054131885988</v>
+        <v>0.9749839334558342</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9819782961527995</v>
+        <v>0.9737197253781238</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9839766531311532</v>
+        <v>0.9667742882740893</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9859282328036886</v>
+        <v>0.9836216765448375</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9851079171144674</v>
+        <v>0.9764395548645588</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.006100563608422</v>
+        <v>1.008347936411618</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.006892178269187</v>
+        <v>1.009152033676608</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.008650488667829</v>
+        <v>1.009842045030631</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.006409090437696</v>
+        <v>1.003381896562761</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.005117008558252</v>
+        <v>1.007632062529784</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.005854562541968</v>
+        <v>1.008908201800063</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.007690401820503</v>
+        <v>1.010486425385782</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.006402151958454</v>
+        <v>1.003347667473401</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.007529789552762</v>
+        <v>1.006611970796696</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9884912811471214</v>
+        <v>0.9838449562985185</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9883783555234381</v>
+        <v>0.983830272187179</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.992225316932881</v>
+        <v>0.9784647905507653</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9928266789899849</v>
+        <v>0.9873959318174498</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9878344368989816</v>
+        <v>0.9824250718015041</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9877273495024809</v>
+        <v>0.9823938171884939</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9915438289757256</v>
+        <v>0.9769122947129684</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9922402951702282</v>
+        <v>0.9869145148375389</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.992525906871546</v>
+        <v>0.9829100735606209</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.002672740145144</v>
+        <v>1.00340485460649</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.002649757433451</v>
+        <v>1.003349819588964</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.002160014153925</v>
+        <v>1.004073593336055</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.002600650542532</v>
+        <v>1.003677672849717</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.002782084306867</v>
+        <v>1.003566359505957</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.002744920898194</v>
+        <v>1.003480073297725</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.002177453391679</v>
+        <v>1.00429825321465</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.002568367412291</v>
+        <v>1.004157651803395</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.002380332348229</v>
+        <v>1.003875633092886</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9911332614773677</v>
+        <v>0.9871948053300432</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9909973184180482</v>
+        <v>0.987125926105167</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9943685376613389</v>
+        <v>0.9824506582011168</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9954086742313403</v>
+        <v>0.9910272510278159</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.990582675583661</v>
+        <v>0.9859287527952135</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9904385829458477</v>
+        <v>0.9858126196795415</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9937028694491269</v>
+        <v>0.9811113111241493</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9947887328095054</v>
+        <v>0.9910177617499502</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9948883340857319</v>
+        <v>0.9867203179871774</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.00160292252729</v>
+        <v>1.003596082707423</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.001740320442483</v>
+        <v>1.003666111179411</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.001445662639461</v>
+        <v>1.005263003928673</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.001795585998578</v>
+        <v>1.005190174326466</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.001748857175907</v>
+        <v>1.00357357189563</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.001894595273899</v>
+        <v>1.003691797330549</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.001631866296581</v>
+        <v>1.00519965261119</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.002086735443852</v>
+        <v>1.005138297370766</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.00162062431902</v>
+        <v>1.005226589127569</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9927219713097366</v>
+        <v>0.990744839498348</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9927219713097366</v>
+        <v>0.990744839498348</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9958060591060914</v>
+        <v>0.9876212998749566</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.997196016109653</v>
+        <v>0.9961708552229285</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9923150632041844</v>
+        <v>0.9894520400772965</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9923150632041844</v>
+        <v>0.9894520400772965</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9953244596705962</v>
+        <v>0.9862127491149039</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9968645937174035</v>
+        <v>0.9961099057095323</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9965005529168386</v>
+        <v>0.9918776545260316</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.004874932879252</v>
+        <v>1.003356401503622</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.004874932879252</v>
+        <v>1.003356401503622</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000751995576601</v>
+        <v>1.00499613146643</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.000037009071096</v>
+        <v>1.002945566990003</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.005529189023127</v>
+        <v>1.004093582030577</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.005529189023127</v>
+        <v>1.004093582030577</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.00153542809524</v>
+        <v>1.005237335551937</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.000802262801737</v>
+        <v>1.003021356385391</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000394502323849</v>
+        <v>1.003970849228216</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9975614242876299</v>
+        <v>0.9940701769673458</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9975614242876299</v>
+        <v>0.9940701769673458</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9965549008576918</v>
+        <v>0.992555585728178</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9972329214079101</v>
+        <v>0.9991051432104762</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9978017607591363</v>
+        <v>0.9935024431686748</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9978017607591363</v>
+        <v>0.9935024431686748</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9968527088098543</v>
+        <v>0.9913778762076167</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9976643410993116</v>
+        <v>0.999119508733699</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9968937958467456</v>
+        <v>0.9958195953903894</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.001319745565175</v>
+        <v>1.00359390518997</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.001319745565175</v>
+        <v>1.00359390518997</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.001856906696132</v>
+        <v>1.005268880202359</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.002374909514401</v>
+        <v>1.000592406185739</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.001007188926007</v>
+        <v>1.003783325316879</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.001007188926007</v>
+        <v>1.003783325316879</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.001457984563194</v>
+        <v>1.006228608505868</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.002020752766891</v>
+        <v>1.000638357556016</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.002115908105266</v>
+        <v>1.002930643194049</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9988779515533235</v>
+        <v>0.9976427709355435</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9988779515533235</v>
+        <v>0.9976427709355435</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9984054103261578</v>
+        <v>0.9977852422035618</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9996012593610353</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9988067356429234</v>
+        <v>0.9972611861142957</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9988067356429234</v>
+        <v>0.9972611861142957</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9983061046710774</v>
+        <v>0.9975527808798934</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9996803740770163</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9990029769731912</v>
+        <v>0.9987402158659372</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000461999783107</v>
+        <v>1.000471425215807</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000461999783107</v>
+        <v>1.000471425215807</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000738988263954</v>
+        <v>1.000457643888722</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.000398899696485</v>
+        <v>1</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.000469458727252</v>
+        <v>1.00044705410894</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.000469458727252</v>
+        <v>1.00044705410894</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000782431212087</v>
+        <v>1.000357020818406</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.000319728116378</v>
+        <v>1</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000568943980219</v>
+        <v>1.000228821944361</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9993394329502913</v>
+        <v>0.9981130848941299</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9993394329502913</v>
+        <v>0.9981130848941299</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9991432202070574</v>
+        <v>0.9982418725219138</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9992756341818091</v>
+        <v>0.9977070158252341</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9992756341818091</v>
+        <v>0.9977070158252341</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9990872105265887</v>
+        <v>0.9979089279901268</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>1</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9995714265069745</v>
+        <v>0.9989689159905956</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.0004531136629</v>
+        <v>1.000296240932815</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.0004531136629</v>
+        <v>1.000296240932815</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000708740443385</v>
+        <v>1.000167188261817</v>
       </c>
       <c r="Q16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000508191972311</v>
+        <v>1.000358713194477</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000508191972311</v>
+        <v>1.000358713194477</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.000762287958466</v>
+        <v>1.000156305351652</v>
       </c>
       <c r="U16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000354370221692</v>
+        <v>1.000083594130909</v>
       </c>
     </row>
     <row r="17">
@@ -7663,62 +7663,62 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9997922473012357</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9997922473012357</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9998513534159519</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9997834580372261</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9997834580372261</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9998488026766307</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9999256711836135</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
         <v/>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1.000207795868917</v>
+        <v>1</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>1.000207795868917</v>
+        <v>1</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>1.00014866868314</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1.000216588863351</v>
+        <v>1</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>1.000216588863351</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>1.000151220187457</v>
+        <v>1</v>
       </c>
       <c r="U17" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>1.00007433434157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>1</v>
+        <v>0.9984087668454538</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1</v>
+        <v>0.9996970192775176</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>1</v>
+        <v>0.9980649064960332</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>1</v>
+        <v>0.9997573042214621</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>1</v>
+        <v>0.9990524777695775</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1</v>
+        <v>1.001593769212959</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1</v>
+        <v>1.001593769212959</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1</v>
+        <v>1.001593769212959</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1</v>
+        <v>1.000303072547622</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1</v>
+        <v>1.001938845351011</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1</v>
+        <v>1.001938845351011</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1</v>
+        <v>1.001938845351011</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1</v>
+        <v>1.000242754694077</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1</v>
+        <v>1.00094842088029</v>
       </c>
     </row>
     <row r="21">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45657</v>
+        <v>45808</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>160471.8328</v>
+        <v>140628.12</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>4715</v>
+        <v>4315</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>12677.53</v>
+        <v>18660.17</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>33596.91</v>
+        <v>25823.95</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>36457.45</v>
+        <v>26978.95</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>37557.45</v>
+        <v>27313.95</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>38122.84</v>
+        <v>27428.95</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>38447.84</v>
+        <v>27573.95</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>38759.47</v>
+        <v>27778.95</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>38849.47</v>
+        <v>27778.95</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>39004.47</v>
+        <v>27843.95</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>39069.47</v>
+        <v>27843.95</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>39069.47</v>
+        <v>27903.95</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28235.26</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28311.09</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28377.01</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28442.01</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28442.01</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28442.01</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28442.01</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>40469.47</v>
+        <v>28697.02</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>156240.3563</v>
+        <v>151955.1463</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>2160</v>
+        <v>3515</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>12342.37</v>
+        <v>18360</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>24742.14</v>
+        <v>24325</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>28323.72</v>
+        <v>25076.99</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>28943.72</v>
+        <v>25386.99</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>29298.72</v>
+        <v>25501.99</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>29558.72</v>
+        <v>26962.03</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>29688.72</v>
+        <v>26962.03</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>29913.72</v>
+        <v>26962.03</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>29928.72</v>
+        <v>26962.03</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>30058.72</v>
+        <v>27182.26</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>30223.72</v>
+        <v>27272.3</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>30288.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>30288.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>30288.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>30288.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>30313.72</v>
+        <v>27404.01</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>158393.6072</v>
+        <v>160297.9726</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>2595</v>
+        <v>7955</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>20346.47</v>
+        <v>21590</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>30391.55</v>
+        <v>29755</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>31141.55</v>
+        <v>31030</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>31701.55</v>
+        <v>31640.03</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>31986.55</v>
+        <v>32075.03</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>32076.55</v>
+        <v>32435.03</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>32201.55</v>
+        <v>32495.03</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>32351.55</v>
+        <v>32520.03</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>32416.55</v>
+        <v>32690.52</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>32656.55</v>
+        <v>32831.42</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32896.45</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>32721.55</v>
+        <v>32961.61</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>150005.3691</v>
+        <v>161260.2412</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>2610</v>
+        <v>3925</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>15686.18</v>
+        <v>28380</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>19986.89</v>
+        <v>33483.31</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>21881.89</v>
+        <v>38913.37</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>22696.89</v>
+        <v>41260.42</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>22956.89</v>
+        <v>41410.42</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>23311.89</v>
+        <v>41320.92</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>23756.89</v>
+        <v>41485.92</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>23821.89</v>
+        <v>41751.33</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>24056.89</v>
+        <v>41933</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>24056.89</v>
+        <v>41999.22</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42064.33</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42064.33</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>24056.89</v>
+        <v>42129.92</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>28560.44</v>
+        <v>53563.52000000001</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>147637.074</v>
+        <v>171480.1265</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>5290</v>
+        <v>8980</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>18460</v>
+        <v>38017.91</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>24780.1</v>
+        <v>43255.81</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>26728.43</v>
+        <v>49718.52</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>27298.43</v>
+        <v>51868.52</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>27428.43</v>
+        <v>51868.52</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>27648.43</v>
+        <v>51999.27</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>27778.43</v>
+        <v>52259.27</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>28093.43</v>
+        <v>52706.25000000001</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>28158.43</v>
+        <v>53216.36000000001</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>28158.43</v>
+        <v>53307.39000000001</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>28158.43</v>
+        <v>53307.39000000001</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>28363.43</v>
+        <v>53423.11000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>28429.55</v>
+        <v>53423.11000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>28469.55</v>
+        <v>53474.39000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>28534.55</v>
+        <v>53524.54000000001</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>28560.44</v>
+        <v>53524.54000000001</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>28560.44</v>
+        <v>53524.54000000001</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>28560.44</v>
+        <v>53524.54000000001</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>28560.44</v>
+        <v>53563.52000000001</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>28442.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>140628.12</v>
+        <v>180826.7985</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>4315</v>
+        <v>4905.13</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>18660.17</v>
+        <v>16610.17</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>25823.95</v>
+        <v>36683.58</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>26978.95</v>
+        <v>73136.03</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>27313.95</v>
+        <v>73583.74000000001</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>27428.95</v>
+        <v>73753.74000000001</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>27573.95</v>
+        <v>74191.05</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>27778.95</v>
+        <v>74619.27</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>27778.95</v>
+        <v>74619.27</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>27843.95</v>
+        <v>75780.25</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>27843.95</v>
+        <v>75937.2</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>27903.95</v>
+        <v>76025.25</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>28235.26</v>
+        <v>75785.37</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>28311.09</v>
+        <v>76126.62999999999</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>28377.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>28442.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>28442.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>28442.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>28442.01</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>151955.1463</v>
+        <v>193503.087</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>3515</v>
+        <v>930</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>18385</v>
+        <v>25515.03</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>24350</v>
+        <v>34110.03</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>25101.99</v>
+        <v>34325.03</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>25411.99</v>
+        <v>34500.15</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>25526.99</v>
+        <v>35393.51</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>26987.03</v>
+        <v>35896.73</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>26987.03</v>
+        <v>38100.08</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>26987.03</v>
+        <v>38100.08</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>26987.03</v>
+        <v>38165.08</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>27207.26</v>
+        <v>38230.08</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>27297.3</v>
+        <v>38425.08</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>27429.01</v>
+        <v>38555.45</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>27429.01</v>
+        <v>39670.45</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>32961.61</v>
+        <v>44333.2</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>160297.9726</v>
+        <v>190226.5803</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>7955</v>
+        <v>8600</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>21590</v>
+        <v>31670.03</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>29755</v>
+        <v>32285.03</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>31030</v>
+        <v>34102.2</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>31640.03</v>
+        <v>39020.11</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>32075.03</v>
+        <v>41220.31</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>32435.03</v>
+        <v>42379.96</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>32495.03</v>
+        <v>42831.33</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>32520.03</v>
+        <v>43110.47</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>32690.52</v>
+        <v>43245.47</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>32831.42</v>
+        <v>43444.28</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>32896.45</v>
+        <v>43444.28</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>32961.61</v>
+        <v>44243.2</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>32961.61</v>
+        <v>44333.2</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>32961.61</v>
+        <v>44333.2</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>32961.61</v>
+        <v>44333.2</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>32961.61</v>
+        <v>44333.2</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>42129.92</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>161260.2412</v>
+        <v>197897.4034</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>3925</v>
+        <v>6245</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>28380</v>
+        <v>8125.03</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>33483.31</v>
+        <v>12232.82</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>38913.37</v>
+        <v>27379.18</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>41260.42</v>
+        <v>38247.71</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>41410.42</v>
+        <v>39459.6</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>41320.92</v>
+        <v>40261.09</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>41485.92</v>
+        <v>42477.67999999999</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>41751.33</v>
+        <v>43185.94999999999</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>41933</v>
+        <v>43598.54999999999</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>41999.22</v>
+        <v>43659.90999999999</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>42064.33</v>
+        <v>44046.18999999999</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>42064.33</v>
+        <v>44071.62999999999</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>42129.92</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>42129.92</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>42129.92</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>53513.37</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>171480.1265</v>
+        <v>203071.6615</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>8980</v>
+        <v>215</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>38056.89</v>
+        <v>4452.01</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>43294.79</v>
+        <v>18578.96</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>49757.5</v>
+        <v>39526.24</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>51907.5</v>
+        <v>42108.32</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>51907.5</v>
+        <v>43319.66</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>52038.25</v>
+        <v>45029.42999999999</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>52298.25</v>
+        <v>49133.62</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>52745.23</v>
+        <v>49638.59</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>53255.34</v>
+        <v>49962.37</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>53346.37</v>
+        <v>50369.49</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>53346.37</v>
+        <v>50718.82999999999</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>53462.09</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>53462.09</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>53513.37</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>76126.62999999999</v>
+        <v>56905.2</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>180826.7985</v>
+        <v>198087.8535</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>4905.13</v>
+        <v>65</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>16610.17</v>
+        <v>7895.83</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>36683.58</v>
+        <v>34509.4</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>73136.03</v>
+        <v>44994.18</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>73583.74000000001</v>
+        <v>48001.17</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>73753.74000000001</v>
+        <v>50019.50999999999</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>74191.05</v>
+        <v>54973.98</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>74619.27</v>
+        <v>55843.57999999999</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>74619.27</v>
+        <v>55869.06999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>75780.25</v>
+        <v>55974.44</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>75937.2</v>
+        <v>56184.94</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>76025.25</v>
+        <v>56815.2</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>75785.37</v>
+        <v>56880.2</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>76126.62999999999</v>
+        <v>56905.2</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>38555.45</v>
+        <v>51370.70999999999</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>193503.087</v>
+        <v>203918.7383</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>930</v>
+        <v>2640</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>25515.03</v>
+        <v>15010.77</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>34110.03</v>
+        <v>34485.73</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>34325.03</v>
+        <v>40080.56999999999</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>34500.15</v>
+        <v>44240.51999999999</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>35393.51</v>
+        <v>46677.20999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>35896.73</v>
+        <v>47491.15999999999</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>38100.08</v>
+        <v>47868.12999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>38100.08</v>
+        <v>48490.79999999999</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>38165.08</v>
+        <v>50647.02999999999</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>38230.08</v>
+        <v>51170.70999999999</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>38425.08</v>
+        <v>51270.70999999999</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>38555.45</v>
+        <v>51370.70999999999</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>43469.28</v>
+        <v>58855.27000000001</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>190226.5803</v>
+        <v>198109.2594</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>8600</v>
+        <v>2230</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>31695.03</v>
+        <v>15345.53</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>32310.03</v>
+        <v>29821.05</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>34127.2</v>
+        <v>40535.74000000001</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>39045.11</v>
+        <v>45843.15000000001</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>41245.31</v>
+        <v>52182.46000000001</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>42404.96</v>
+        <v>52389.56</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>42856.33</v>
+        <v>57817.32000000001</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>43135.47</v>
+        <v>58243.55000000001</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>43270.47</v>
+        <v>58598.55000000001</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>43469.28</v>
+        <v>58723.55000000001</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>43469.28</v>
+        <v>58855.27000000001</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>43659.90999999999</v>
+        <v>67137.7</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>197897.4034</v>
+        <v>193529.1439</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>6245</v>
+        <v>3790</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>8125.03</v>
+        <v>12493.69</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>12232.82</v>
+        <v>23420.51</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>27379.18</v>
+        <v>44184.59</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>38247.71</v>
+        <v>57518.94</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>39459.6</v>
+        <v>60154.91</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>40261.09</v>
+        <v>61190.83</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>42477.67999999999</v>
+        <v>65977.7</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>43185.94999999999</v>
+        <v>67022.7</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>43598.54999999999</v>
+        <v>67137.7</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>43659.90999999999</v>
+        <v>67137.7</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>49962.37</v>
+        <v>40411.31</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>203071.6615</v>
+        <v>191031.0336</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>215</v>
+        <v>2865</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>4452.01</v>
+        <v>11974.28</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>18578.96</v>
+        <v>20871.24</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>39526.24</v>
+        <v>33622.52</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>42108.32</v>
+        <v>37468.63</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>43319.66</v>
+        <v>39192.52</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>45029.42999999999</v>
+        <v>39606.12</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>49133.62</v>
+        <v>40126.31</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>49638.59</v>
+        <v>40321.31</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>49962.37</v>
+        <v>40411.31</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>55894.06999999999</v>
+        <v>53020.17000000001</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>198087.8535</v>
+        <v>187676.6539</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>65</v>
+        <v>3250.53</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>7895.83</v>
+        <v>12510.78</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>34509.4</v>
+        <v>18648.06</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>44994.18</v>
+        <v>38641.15</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>48001.17</v>
+        <v>50616.43</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>50019.50999999999</v>
+        <v>52544.84</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>54998.98</v>
+        <v>52660.17000000001</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>55868.57999999999</v>
+        <v>52880.17000000001</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>55894.06999999999</v>
+        <v>53020.17000000001</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>47982.03</v>
+        <v>38257.41</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>203918.7383</v>
+        <v>184637.641</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>2640</v>
+        <v>3435</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>15074.67</v>
+        <v>13467.45</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>34574.63</v>
+        <v>16119.02</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>40194.47</v>
+        <v>30858.67</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>44354.42</v>
+        <v>35781.29</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>46791.11</v>
+        <v>36782.41</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>47605.06</v>
+        <v>37997.41</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>47982.03</v>
+        <v>38257.41</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>52389.56</v>
+        <v>37054.99000000001</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>198109.2594</v>
+        <v>171913.5757</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>2230</v>
+        <v>2155</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>15345.53</v>
+        <v>11472.64</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>29821.05</v>
+        <v>18395.9</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>40535.74000000001</v>
+        <v>33908.37</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>45843.15000000001</v>
+        <v>36089.73</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>52182.46000000001</v>
+        <v>36644.99000000001</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>52389.56</v>
+        <v>37054.99000000001</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>60154.91</v>
+        <v>29899.75</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>193529.1439</v>
+        <v>170289.106</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>3790</v>
+        <v>1535</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>12493.69</v>
+        <v>9960.67</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>23420.51</v>
+        <v>20549.26</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>44184.59</v>
+        <v>28124.37</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>57518.94</v>
+        <v>29479.75</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>60154.91</v>
+        <v>29899.75</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>37468.63</v>
+        <v>31962.31</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>191031.0336</v>
+        <v>150941.2284</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>2865</v>
+        <v>3480</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>11974.28</v>
+        <v>14123.67</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>20871.24</v>
+        <v>27157.12</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>33622.52</v>
+        <v>31037.31</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>37468.63</v>
+        <v>31962.31</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>38706.15</v>
+        <v>34270.92</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>187676.6539</v>
+        <v>143895.0667</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>3250.53</v>
+        <v>2180</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>12510.78</v>
+        <v>18846.75</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>18713.06</v>
+        <v>31380.92</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>38706.15</v>
+        <v>34270.92</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>16119.02</v>
+        <v>22402.1</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>184637.641</v>
+        <v>140198.7571</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>3435</v>
+        <v>5105</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>13467.45</v>
+        <v>18940.21</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>16119.02</v>
+        <v>22402.1</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>11472.64</v>
+        <v>21755</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>171913.5757</v>
+        <v>140799.498</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>2155</v>
+        <v>4830</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>11472.64</v>
+        <v>21755</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>1535</v>
+        <v>3075</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11622,7 +11622,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>170289.106</v>
+        <v/>
       </c>
       <c r="J31" s="20" t="n">
         <v>30</v>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>1535</v>
+        <v>3075</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>

--- a/Process Results/Unified_IBNP_PHS.xlsx
+++ b/Process Results/Unified_IBNP_PHS.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09873435008866722</v>
+        <v>0.1450517027042162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06812571844127679</v>
+        <v>0.07956020778313186</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05867902993291581</v>
+        <v>0.07136859486437776</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08062262701775066</v>
+        <v>0.1027580735269562</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4852527217173273</v>
+        <v>0.6399300933989325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3359441851440951</v>
+        <v>0.3950557096968323</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2752788362506942</v>
+        <v>0.3341504490397498</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3970249493737834</v>
+        <v>0.4885246472906135</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7566161926985188</v>
+        <v>0.8376516654676185</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5263118175907189</v>
+        <v>0.5981614727015457</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.505837838598817</v>
+        <v>0.5458095839430692</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6207925002868223</v>
+        <v>0.6979333737897313</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8938555000097819</v>
+        <v>0.9163030753062341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7833604130054997</v>
+        <v>0.7975058796180451</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7568274086879875</v>
+        <v>0.7761462146024175</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8349682449602663</v>
+        <v>0.8527871067182105</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.936706565831855</v>
+        <v>0.9447860854318112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8840023733287998</v>
+        <v>0.8864675456016005</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8695317876181093</v>
+        <v>0.8717998895996664</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9095916535564</v>
+        <v>0.9146982024534218</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9549727134159215</v>
+        <v>0.9628366985226883</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9135866174992276</v>
+        <v>0.9125767451286381</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9103564783572919</v>
+        <v>0.9110277327728886</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9338213420565222</v>
+        <v>0.9370332535502481</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9681658396343579</v>
+        <v>0.9831264622589927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9247699841289325</v>
+        <v>0.9259593163948537</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9331148814745337</v>
+        <v>0.9341301122926216</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9459704834291308</v>
+        <v>0.9536869606403252</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9755996050743376</v>
+        <v>0.9889744916202045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9615651864064663</v>
+        <v>0.9638647923040672</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9680469053851225</v>
+        <v>0.9712299980027208</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9685315572912904</v>
+        <v>0.9762582111150258</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9840679159150929</v>
+        <v>0.9924896930342818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9689285521094405</v>
+        <v>0.9720130129770636</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.97490788241572</v>
+        <v>0.9777677031273438</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9764395548645588</v>
+        <v>0.9821446353043221</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9873959318174498</v>
+        <v>0.994438021309713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9784647905507653</v>
+        <v>0.9808378507117402</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.983830272187179</v>
+        <v>0.9864440312206556</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9829100735606209</v>
+        <v>0.9875911160594192</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9910272510278159</v>
+        <v>0.9955752226267162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9824506582011168</v>
+        <v>0.9848842205099609</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.987125926105167</v>
+        <v>0.9895865369188492</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9867203179871774</v>
+        <v>0.9902008652525334</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9961708552229285</v>
+        <v>0.9968783471618966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9876212998749566</v>
+        <v>0.989692743154076</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.990744839498348</v>
+        <v>0.9928330132285966</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9918776545260316</v>
+        <v>0.9932725496741577</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9991051432104762</v>
+        <v>0.9986401842253423</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.992555585728178</v>
+        <v>0.994305506863032</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9940701769673458</v>
+        <v>0.9956388584292695</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9958195953903894</v>
+        <v>0.9964681315602788</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9987969590760488</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9977852422035618</v>
+        <v>0.9988059451634707</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9976427709355435</v>
+        <v>0.9989118346619716</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9987402158659372</v>
+        <v>0.9988014520995482</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9989611933360965</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9982418725219138</v>
+        <v>0.9991738957907301</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9981130848941299</v>
+        <v>0.9992667147282126</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9989689159905956</v>
+        <v>0.9990675332422734</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.9996534143043745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1</v>
+        <v>0.9997142748392821</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1</v>
+        <v>0.9997142748392821</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1</v>
+        <v>0.9996838436455342</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,73 +4833,73 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>4.32448899188876</v>
+        <v>5.223328591749645</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.383907542107065</v>
+        <v>1.324891067538126</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.044725923028816</v>
+        <v>1.030914285714286</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.012417088137233</v>
+        <v>1.012361930199757</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.004210302793994</v>
+        <v>1.004529879280687</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.005286385370202</v>
+        <v>1.057252002686849</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.007434553264948</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>1.008168153510696</v>
+      </c>
+      <c r="L38" s="4" t="n">
+        <v>1.00331245451997</v>
+      </c>
+      <c r="M38" s="4" t="n">
+        <v>1.00482944232793</v>
+      </c>
+      <c r="N38" s="4" t="n">
         <v>0.9999999999999999</v>
       </c>
-      <c r="J38" s="4" t="n">
-        <v>1.002339901256167</v>
-      </c>
-      <c r="K38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="n">
-        <v>1.002154866676603</v>
-      </c>
-      <c r="M38" s="4" t="n">
-        <v>1.011873229417341</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <v>1.002685649078493</v>
-      </c>
       <c r="O38" s="4" t="n">
-        <v>1.00232841617896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.002290586640382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1.008965962672821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X38" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" ht="15.6" customHeight="1">
@@ -4908,70 +4908,70 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>5.223328591749645</v>
+        <v>2.714016341923319</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.324891067538126</v>
+        <v>1.378184344603983</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.030914285714286</v>
+        <v>1.042849941186355</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.012361930199757</v>
+        <v>1.019659361907831</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.004529879280687</v>
+        <v>1.013748406686087</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.057252002686849</v>
+        <v>1.011223683968495</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>1</v>
+        <v>1.001849851842283</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>1.000769348420358</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.005242615089839</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.008168153510696</v>
+        <v>1.004310118040337</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.00331245451997</v>
+        <v>1.00198072456202</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.00482944232793</v>
+        <v>1.001980760841976</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,43 +4983,43 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>2.714016341923319</v>
+        <v>7.230573248407643</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.378184344603983</v>
+        <v>1.179820648343904</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.042849941186355</v>
+        <v>1.162172138895468</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.019659361907831</v>
+        <v>1.060314745291914</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1.013748406686087</v>
+        <v>1.003635445300848</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1.011223683968495</v>
+        <v>0.9978387082285087</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.001849851842283</v>
+        <v>1.003993134712393</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.000769348420358</v>
+        <v>1.006397592243344</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.005242615089839</v>
+        <v>1.004351238631201</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.004310118040337</v>
+        <v>1.001579185844085</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.00198072456202</v>
+        <v>1.001550266885909</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1.001980760841976</v>
+        <v>1</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.00155927837196</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>1</v>
@@ -5058,49 +5058,49 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>7.230573248407643</v>
+        <v>4.228654788418709</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.179820648343904</v>
+        <v>1.137936319500112</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.162172138895468</v>
+        <v>1.149560924222922</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.060314745291914</v>
+        <v>1.043282260936471</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.003635445300848</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0.9978387082285087</v>
+        <v>1.002522965741888</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.003993134712393</v>
+        <v>1.005004361493517</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.006397592243344</v>
+        <v>1.008560427833705</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.004351238631201</v>
+        <v>1.009686553747071</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.001579185844085</v>
+        <v>1.001711998678998</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.001550266885909</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>1.002172623294307</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1.00155927837196</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>1.000960686058737</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.000938614780516</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
@@ -5112,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>1.000728871287277</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>1.00083316314433</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,49 +5133,49 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>4.233620267260579</v>
+        <v>3.386285378776914</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.13777453836889</v>
+        <v>2.20850117729078</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.149406750214595</v>
+        <v>1.993699360858455</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.043243443288336</v>
+        <v>1.006121606546049</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1</v>
+        <v>1.002310293007667</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.002520796814715</v>
+        <v>1.005929326431446</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.005000070193293</v>
+        <v>1.005771855230516</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.008553123685042</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.009678358828412</v>
+        <v>1.015558715597191</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.00171056419492</v>
+        <v>1.00207112011375</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1</v>
+        <v>1.001159510753623</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1.002170805961425</v>
+        <v>0.9968447325066343</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>1</v>
+        <v>1.004502979928712</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>1.000959884214903</v>
+        <v>1.001182240695536</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.000937832109913</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>1.000728264082232</v>
+        <v>1</v>
       </c>
       <c r="U42" s="4" t="n">
         <v/>
@@ -5208,46 +5208,46 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v>3.386285378776914</v>
+        <v>27.43551612903226</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>2.20850117729078</v>
+        <v>1.336860274120783</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.993699360858455</v>
+        <v>1.006303131366346</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.006121606546049</v>
+        <v>1.005101816371319</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.002310293007667</v>
+        <v>1.025894380169362</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.005929326431446</v>
+        <v>1.01421786084511</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.005771855230516</v>
+        <v>1.061380242712916</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.015558715597191</v>
+        <v>1.001706033163185</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1.00207112011375</v>
+        <v>1.001703127571067</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.001159510753623</v>
+        <v>1.005100695577932</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>0.9968447325066343</v>
+        <v>1.003392836137231</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1.004502979928712</v>
+        <v>1.028919387531464</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1.001182240695536</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>1</v>
@@ -5283,43 +5283,43 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>27.43551612903226</v>
+        <v>3.682561627906977</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.336860274120783</v>
+        <v>1.019418990130417</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.006303131366346</v>
+        <v>1.056285219496466</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.005101816371319</v>
+        <v>1.144210930673095</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.025894380169362</v>
+        <v>1.056386309520911</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.01421786084511</v>
+        <v>1.028132976195473</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.061380242712916</v>
+        <v>1.010650552761258</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>1.006517191971391</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.001706033163185</v>
+        <v>1.003131489867775</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.001703127571067</v>
+        <v>1.00459724452064</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.005100695577932</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.003392836137231</v>
+        <v>1.018389532523039</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.028919387531464</v>
+        <v>1.002034210906987</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
@@ -5358,43 +5358,43 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>3.682561627906977</v>
+        <v>1.301045636509207</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.019418990130417</v>
+        <v>1.505572287117709</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1.056285219496466</v>
+        <v>2.238174026921021</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.144210930673095</v>
+        <v>1.396963312999147</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.056386309520911</v>
+        <v>1.031685295668682</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.028132976195473</v>
+        <v>1.020311660533812</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.010650552761258</v>
+        <v>1.055055389707531</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.006517191971391</v>
+        <v>1.016673933227992</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.003131489867775</v>
+        <v>1.009554033198297</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1.00459724452064</v>
+        <v>1.001407386254818</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>1.008847475865159</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.018389532523039</v>
+        <v>1.000577575495179</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>1.002034210906987</v>
+        <v>1.001475552413196</v>
       </c>
       <c r="O45" s="4" t="n">
         <v>1</v>
@@ -5433,49 +5433,49 @@
         <v/>
       </c>
       <c r="B46" s="4" t="n">
-        <v>1.301045636509207</v>
+        <v>20.70702325581395</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>1.505572287117709</v>
+        <v>4.173162234586175</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>2.238174026921021</v>
+        <v>2.127473227780242</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.396963312999147</v>
+        <v>1.065325717801643</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.031685295668682</v>
+        <v>1.02876723649863</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.020311660533812</v>
+        <v>1.039468684657266</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.055055389707531</v>
+        <v>1.091144613644899</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.016673933227992</v>
+        <v>1.010277484134082</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.009554033198297</v>
+        <v>1.006522747725106</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.001407386254818</v>
+        <v>1.008148532585624</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.008847475865159</v>
+        <v>1.006935547689683</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1.000577575495179</v>
+        <v>1.005969577768257</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>1.001475552413196</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>1</v>
+        <v>1.001273970240055</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5508,46 +5508,46 @@
         <v/>
       </c>
       <c r="B47" s="4" t="n">
-        <v>20.70702325581395</v>
+        <v>121.4743076923077</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>4.173162234586175</v>
+        <v>4.367419258013407</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>2.127473227780242</v>
+        <v>1.304044147498579</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.065325717801643</v>
+        <v>1.066867797011197</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.02876723649863</v>
+        <v>1.042069635821284</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.039468684657266</v>
+        <v>1.099100281210877</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.091144613644899</v>
+        <v>1.01582558948319</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.010277484134082</v>
+        <v>1.000456657980192</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.006522747725106</v>
+        <v>1.001886861040035</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.008148532585624</v>
+        <v>1.003762325413802</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1.006935547689683</v>
+        <v>1.011222590337525</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.005969577768257</v>
+        <v>1.001144563674718</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>1.000439713517849</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1</v>
+        <v>1.000439520254851</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,43 +5583,43 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v>121.4743076923077</v>
+        <v>5.685897727272727</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>4.370585486263002</v>
+        <v>2.297399134088391</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.303823885665935</v>
+        <v>1.162236380091128</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.066830643429884</v>
+        <v>1.103789691613667</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.042047725086701</v>
+        <v>1.055078240490844</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.099050750397195</v>
+        <v>1.017437846006648</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.015818392628658</v>
+        <v>1.007937687771787</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.000456453543988</v>
+        <v>1.013008028515006</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>1.0018860167173</v>
+        <v>1.044466785452086</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.00376064503727</v>
+        <v>1.010339796825204</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.011217596743896</v>
+        <v>1.001954242964383</v>
       </c>
       <c r="M48" s="4" t="n">
-        <v>1.001144060040271</v>
+        <v>1.001950431347645</v>
       </c>
       <c r="N48" s="4" t="n">
-        <v>1.000439520254851</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v/>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>5.685897727272727</v>
+        <v>6.881403587443946</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>2.297399134088391</v>
+        <v>1.943305314316286</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.162236380091128</v>
+        <v>1.359299555179982</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.103789691613667</v>
+        <v>1.130931617382586</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.055078240490844</v>
+        <v>1.138282600563007</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.017437846006648</v>
+        <v>1.003968766516565</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.007937687771787</v>
+        <v>1.103603847789522</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.013008028515006</v>
+        <v>1.007372012400436</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.044466785452086</v>
+        <v>1.00609509550843</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1.010339796825204</v>
+        <v>1.002133158584982</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.001954242964383</v>
+        <v>1.002243052404018</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1.001950431347645</v>
+        <v>1.002208808149211</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>6.881403587443947</v>
+        <v>3.296488126649077</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.943305314316287</v>
+        <v>1.874587091563822</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.359299555179982</v>
+        <v>1.886576765407756</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.130931617382586</v>
+        <v>1.301787342600667</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.138282600563007</v>
+        <v>1.045827861222756</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.003968766516565</v>
+        <v>1.017220871912201</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.103603847789521</v>
+        <v>1.078228551565651</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.007372012400436</v>
+        <v>1.015838684888985</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1.00609509550843</v>
+        <v>1.001715836574772</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1.002133158584982</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1.002243052404018</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>3.296488126649077</v>
+        <v>4.179504363001746</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.874587091563822</v>
+        <v>1.743005842522473</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.886576765407756</v>
+        <v>1.610949804611513</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.301787342600667</v>
+        <v>1.114390890391321</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.045827861222756</v>
+        <v>1.046008887968415</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.017220871912201</v>
+        <v>1.010553034099364</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.078228551565651</v>
+        <v>1.013134081298547</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.015838684888985</v>
+        <v>1.004859654426236</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.001715836574772</v>
+        <v>1.002232070337</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1</v>
+        <v>1.001608460601747</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,31 +5883,31 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>4.179504363001746</v>
+        <v>3.848843111738701</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.743005842522473</v>
+        <v>1.487761754263124</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.610949804611513</v>
+        <v>2.074143101671622</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.114390890391321</v>
+        <v>1.309034441403766</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.046008887968415</v>
+        <v>1.038158545122978</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.010553034099364</v>
+        <v>1.002198219428921</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.013134081298547</v>
+        <v>1.004184059039355</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1.004859654426236</v>
+        <v>1.002651489038366</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>1.002232070337</v>
+        <v>1.002071192349452</v>
       </c>
       <c r="K52" t="n">
         <v/>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>3.848843111738701</v>
+        <v>3.920655021834062</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.490559341623784</v>
+        <v>1.196887309772823</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>2.072127073808214</v>
+        <v>1.914425939045922</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.309910031145553</v>
+        <v>1.15952145701678</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.038098498847114</v>
+        <v>1.027978868285632</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.002194887262003</v>
+        <v>1.033032093329393</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.004177730531443</v>
+        <v>1.006842571638435</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.002647495270911</v>
+        <v>1.003431492095257</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>3.920655021834062</v>
+        <v>5.323730858468677</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.196887309772823</v>
+        <v>1.603458314738369</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.914425939045922</v>
+        <v>1.840591653574982</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.15952145701678</v>
+        <v>1.064424173654891</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.027978868285632</v>
+        <v>1.015406471017489</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.033032093329393</v>
+        <v>1.011203422454282</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.006842571638435</v>
+        <v>1.007537164283807</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v>5.323730858468677</v>
+        <v>6.489035830618893</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.603458314738369</v>
+        <v>2.063039936068558</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.84325692137922</v>
+        <v>1.365468634880283</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.064331019155447</v>
+        <v>1.048304006825528</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.015385540429369</v>
+        <v>1.014278550727101</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.011188432579733</v>
+        <v>1.018434878790672</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>6.489035830618893</v>
+        <v>4.058525862068965</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>2.063039936068558</v>
+        <v>1.919268858589871</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.368631765815411</v>
+        <v>1.143142834797647</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.048192368397941</v>
+        <v>1.029850929299768</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.014247067902543</v>
+        <v>1.027732245017675</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>4.058525862068965</v>
+        <v>8.645298165137616</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.922809014937336</v>
+        <v>1.665057370634194</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.142879289114604</v>
+        <v>1.09209417697123</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.029802840516785</v>
+        <v>1.018101935985378</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>8.645298165137616</v>
+        <v>3.710129285014691</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.665057370634194</v>
+        <v>1.182779916378963</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.09209417697123</v>
+        <v>1.036826904620549</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>3.710129285014691</v>
+        <v>4.504140786749482</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.182779916378963</v>
+        <v>1.11035807860262</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>4.504140786749482</v>
+        <v>5.431382113821138</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.08240707207021071</v>
+        <v>0.08264985318129692</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.05867902993291581</v>
+        <v>0.07136859486437776</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.06812571844127679</v>
+        <v>0.07956020778313186</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.09873435008866722</v>
+        <v>0.1450517027042162</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02683274774443435</v>
+        <v>0.02693717853305645</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.04898725911510197</v>
+        <v>0.06279351900371355</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.05745663308376626</v>
+        <v>0.06613957120296142</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.08319989382492023</v>
+        <v>0.1398099432508726</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08062262701775066</v>
+        <v>0.1027580735269562</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>4.534679294413515</v>
+        <v>4.576815543935057</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>4.691264265367098</v>
+        <v>4.682037662009995</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>4.931238786621726</v>
+        <v>4.965493689680772</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>4.914730499380933</v>
+        <v>4.411737893927747</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>11.40245303859024</v>
+        <v>11.45036293611591</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>5.045304393833215</v>
+        <v>5.024094759378916</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>5.455143464676389</v>
+        <v>5.473085340568464</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>5.619856078967263</v>
+        <v>4.548550728528437</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>4.92298464300133</v>
+        <v>4.68861579180426</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.3736896434300268</v>
+        <v>0.3782731327441101</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.2752788362506942</v>
+        <v>0.3341504490397498</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.3359441851440951</v>
+        <v>0.3950557096968323</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.4852527217173273</v>
+        <v>0.6399300933989325</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3059591460522508</v>
+        <v>0.3084404706784468</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2471556336552702</v>
+        <v>0.3154805897495176</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.3134341764692167</v>
+        <v>0.3619875175824123</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.4675714290814088</v>
+        <v>0.6359326192292762</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.3970249493737834</v>
+        <v>0.4885246472906135</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.575410188059845</v>
+        <v>1.557804458998718</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.837547141249008</v>
+        <v>1.633424660991974</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.566664466494546</v>
+        <v>1.514119295125687</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.559220914868496</v>
+        <v>1.308973705266001</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.818253053505265</v>
+        <v>1.805394341944768</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.946122839409</v>
+        <v>1.673909076794957</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.605671977088374</v>
+        <v>1.590660412502096</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.590215433983498</v>
+        <v>1.319398455205259</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.562942690681521</v>
+        <v>1.411546500195844</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.5887144714321149</v>
+        <v>0.5892755729081885</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.505837838598817</v>
+        <v>0.5458095839430692</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.5263118175907189</v>
+        <v>0.5981614727015457</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.7566161926985188</v>
+        <v>0.8376516654676185</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.5563111515573683</v>
+        <v>0.5568566805896489</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.480995223545125</v>
+        <v>0.5280858227343438</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.5032724738183935</v>
+        <v>0.5757992140382496</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7435393030149767</v>
+        <v>0.8390485154257414</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6207925002868223</v>
+        <v>0.6979333737897313</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.379141803988289</v>
+        <v>1.380763577356944</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.496185834544165</v>
+        <v>1.422009135485194</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.488396017006542</v>
+        <v>1.333261863249362</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.181385633344418</v>
+        <v>1.093895127391299</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.45753836012157</v>
+        <v>1.457011054990131</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.573647898739263</v>
+        <v>1.482483324862599</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.572235861022434</v>
+        <v>1.398758357315102</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.201201743967082</v>
+        <v>1.090687972129809</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.33489082517548</v>
+        <v>1.21357849532033</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8119207381648992</v>
+        <v>0.813650248097773</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7568274086879875</v>
+        <v>0.7761462146024175</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.7833604130054997</v>
+        <v>0.7975058796180451</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.8938555000097819</v>
+        <v>0.9163030753062341</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8108448435582688</v>
+        <v>0.8113463396642268</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.756917122835408</v>
+        <v>0.782878426300011</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.791263031202752</v>
+        <v>0.8054039627714689</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.8931407074896583</v>
+        <v>0.9151401238082283</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8349682449602663</v>
+        <v>0.8527871067182105</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.101528439788265</v>
+        <v>1.100901313603966</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.148916883342667</v>
+        <v>1.123241823766734</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.128474656942606</v>
+        <v>1.111549855941078</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.047939589588702</v>
+        <v>1.031084704278721</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.104760392743347</v>
+        <v>1.105017298295639</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.149314744370952</v>
+        <v>1.117694166748933</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.121024767770638</v>
+        <v>1.104872824031018</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.047442076023391</v>
+        <v>1.032085624036891</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.088207123265654</v>
+        <v>1.071317280109899</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8943537839425177</v>
+        <v>0.8957486269450311</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8695317876181093</v>
+        <v>0.8717998895996664</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8840023733287998</v>
+        <v>0.8864675456016005</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.936706565831855</v>
+        <v>0.9447860854318112</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8957892678233511</v>
+        <v>0.8965517402378195</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8699360095415735</v>
+        <v>0.8750186503491065</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8870254557995558</v>
+        <v>0.889868950833086</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9355131568339681</v>
+        <v>0.944502965761813</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9095916535564</v>
+        <v>0.9146982024534218</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.03235666488664</v>
+        <v>1.033149472726232</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.046950199314752</v>
+        <v>1.044996384653404</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.033466249710423</v>
+        <v>1.029453079987625</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.01950039452093</v>
+        <v>1.019105502683845</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.031269623143329</v>
+        <v>1.032514692230003</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.044982844373717</v>
+        <v>1.042606203200374</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.031257787442638</v>
+        <v>1.028260594689882</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.019203825539181</v>
+        <v>1.019139088920755</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.026483322115676</v>
+        <v>1.024279291335735</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9232920896196444</v>
+        <v>0.9254422216235056</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9103564783572919</v>
+        <v>0.9110277327728886</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9135866174992276</v>
+        <v>0.9125767451286381</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9549727134159215</v>
+        <v>0.9628366985226883</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.9238002606440259</v>
+        <v>0.9257028441399255</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9090682056738743</v>
+        <v>0.9122998727699977</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.9147519089531476</v>
+        <v>0.9150171765796901</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9534785882874164</v>
+        <v>0.9625798920094452</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.9338213420565222</v>
+        <v>0.9370332535502481</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.020089722067591</v>
+        <v>1.020547495474673</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.024999441052266</v>
+        <v>1.025358590840497</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.012241167302031</v>
+        <v>1.014664598169581</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.013815186583965</v>
+        <v>1.0210729023597</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.020934931546388</v>
+        <v>1.021669293502099</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.024731488694564</v>
+        <v>1.025088561261289</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.013026347616543</v>
+        <v>1.015440420002472</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.015471804390377</v>
+        <v>1.020890131524782</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.013028176942998</v>
+        <v>1.017868750264641</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.941840771087308</v>
+        <v>0.9444577414843859</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9331148814745337</v>
+        <v>0.9341301122926216</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9247699841289325</v>
+        <v>0.9259593163948537</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9681658396343579</v>
+        <v>0.9831264622589927</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9431399558631437</v>
+        <v>0.945762170765321</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9315508157250849</v>
+        <v>0.9351881640166543</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9266677853020678</v>
+        <v>0.9291454260955568</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9682306224958117</v>
+        <v>0.9826883125566335</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9459704834291308</v>
+        <v>0.9536869606403252</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.029508541336791</v>
+        <v>1.029250022355317</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.037435930563435</v>
+        <v>1.039715972348912</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.039788491094023</v>
+        <v>1.04093643774415</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.007678194308929</v>
+        <v>1.005948399911619</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.027766066311417</v>
+        <v>1.027773150292683</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.037812126440097</v>
+        <v>1.037960362641408</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.035654078432564</v>
+        <v>1.03558837926922</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.008051461156142</v>
+        <v>1.006187931653866</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.023733342701476</v>
+        <v>1.023442418827885</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9696331184136125</v>
+        <v>0.9720831515364564</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9680469053851225</v>
+        <v>0.9712299980027208</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9615651864064663</v>
+        <v>0.9638647923040672</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9755996050743376</v>
+        <v>0.9889744916202045</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9693272424185863</v>
+        <v>0.9720289656751205</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9667747329546574</v>
+        <v>0.9706882458606793</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9597072712001584</v>
+        <v>0.9622122059157062</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9760262937430239</v>
+        <v>0.9887691206717869</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9685315572912904</v>
+        <v>0.9762582111150258</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.006256755519044</v>
+        <v>1.006344573515696</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.007087442759675</v>
+        <v>1.006731366553821</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.007657687494378</v>
+        <v>1.008453696761263</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.008680108926561</v>
+        <v>1.003554390374941</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.005835687670486</v>
+        <v>1.00605087482346</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.007183671838672</v>
+        <v>1.006757219056495</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.007363721507594</v>
+        <v>1.007860226894048</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.007781944862044</v>
+        <v>1.003647545186619</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.00816889821047</v>
+        <v>1.006004043568102</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9756998757786948</v>
+        <v>0.9782506045547485</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.97490788241572</v>
+        <v>0.9777677031273438</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9689285521094405</v>
+        <v>0.9720130129770636</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9840679159150929</v>
+        <v>0.9924896930342818</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9749839334558342</v>
+        <v>0.9779105912711975</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9737197253781238</v>
+        <v>0.977247398973525</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9667742882740893</v>
+        <v>0.9697754121744255</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9836216765448375</v>
+        <v>0.9923757007185711</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9764395548645588</v>
+        <v>0.9821446353043221</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.008347936411618</v>
+        <v>1.008120732875299</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.009152033676608</v>
+        <v>1.008873608798451</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.009842045030631</v>
+        <v>1.009078929620138</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.003381896562761</v>
+        <v>1.001963071545332</v>
       </c>
       <c r="R10" s="22" t="n">
-        <v>1.007632062529784</v>
+        <v>1.007614751218763</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.008908201800063</v>
+        <v>1.008718951213367</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.010486425385782</v>
+        <v>1.009744640210296</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>1.003347667473401</v>
+        <v>1.002006366420408</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.006611970796696</v>
+        <v>1.005521000582735</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9838449562985185</v>
+        <v>0.9861947163994371</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.983830272187179</v>
+        <v>0.9864440312206556</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9784647905507653</v>
+        <v>0.9808378507117402</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9873959318174498</v>
+        <v>0.994438021309713</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9824250718015041</v>
+        <v>0.9853571371379209</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9823938171884939</v>
+        <v>0.9857679713685646</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9769122947129684</v>
+        <v>0.9792255246508568</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9869145148375389</v>
+        <v>0.9943667700009218</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9829100735606209</v>
+        <v>0.9875911160594192</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.00340485460649</v>
+        <v>1.003437949790629</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.003349819588964</v>
+        <v>1.003185690823538</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.004073593336055</v>
+        <v>1.004125421745587</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.003677672849717</v>
+        <v>1.001143561783273</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.003566359505957</v>
+        <v>1.003681472038982</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.003480073297725</v>
+        <v>1.00325519474956</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.00429825321465</v>
+        <v>1.00433204566856</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.004157651803395</v>
+        <v>1.001247206395576</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.003875633092886</v>
+        <v>1.00263449176443</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9871948053300432</v>
+        <v>0.9895852043182023</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.987125926105167</v>
+        <v>0.9895865369188492</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9824506582011168</v>
+        <v>0.9848842205099609</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9910272510278159</v>
+        <v>0.9955752226267162</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9859287527952135</v>
+        <v>0.9889847018867057</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9858126196795415</v>
+        <v>0.9889768380932477</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9811113111241493</v>
+        <v>0.983467574343464</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9910177617499502</v>
+        <v>0.9956069505960157</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9867203179871774</v>
+        <v>0.9902008652525334</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.003596082707423</v>
+        <v>1.003281990167418</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.003666111179411</v>
+        <v>1.003280639124149</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.005263003928673</v>
+        <v>1.004882322758329</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.005190174326466</v>
+        <v>1.001308916197957</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.00357357189563</v>
+        <v>1.003408197043094</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.003691797330549</v>
+        <v>1.003416175586688</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.00519965261119</v>
+        <v>1.005200484876795</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.005138297370766</v>
+        <v>1.001399098456134</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.005226589127569</v>
+        <v>1.003095619478143</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.990744839498348</v>
+        <v>0.9928330132285966</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.990744839498348</v>
+        <v>0.9928330132285966</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9876212998749566</v>
+        <v>0.989692743154076</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9961708552229285</v>
+        <v>0.9968783471618966</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9894520400772965</v>
+        <v>0.9923553566233414</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9894520400772965</v>
+        <v>0.9923553566233414</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9862127491149039</v>
+        <v>0.9885820825906554</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9961099057095323</v>
+        <v>0.996999902743511</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9918776545260316</v>
+        <v>0.9932725496741577</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.003356401503622</v>
+        <v>1.002826099820703</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.003356401503622</v>
+        <v>1.002826099820703</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.00499613146643</v>
+        <v>1.004660803810944</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.002945566990003</v>
+        <v>1.00176735412948</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.004093582030577</v>
+        <v>1.003288407005511</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.004093582030577</v>
+        <v>1.003288407005511</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.005237335551937</v>
+        <v>1.005040081493008</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.003021356385391</v>
+        <v>1.001767934390525</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.003970849228216</v>
+        <v>1.003214078970212</v>
       </c>
     </row>
     <row r="14">
@@ -7471,62 +7471,62 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9940701769673458</v>
+        <v>0.9956388584292695</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9940701769673458</v>
+        <v>0.9956388584292695</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.992555585728178</v>
+        <v>0.994305506863032</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9991051432104762</v>
+        <v>0.9986401842253423</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9935024431686748</v>
+        <v>0.9956186249300176</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9935024431686748</v>
+        <v>0.9956186249300176</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9913778762076167</v>
+        <v>0.9935646168494399</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.999119508733699</v>
+        <v>0.9987625331589209</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9958195953903894</v>
+        <v>0.9964681315602788</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.00359390518997</v>
+        <v>1.003287312668637</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.00359390518997</v>
+        <v>1.003287312668637</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.005268880202359</v>
+        <v>1.004526212788097</v>
       </c>
       <c r="Q14" s="22" t="n">
-        <v>1.000592406185739</v>
+        <v>1.000156988325908</v>
       </c>
       <c r="R14" s="22" t="n">
-        <v>1.003783325316879</v>
+        <v>1.003539192970015</v>
       </c>
       <c r="S14" s="22" t="n">
-        <v>1.003783325316879</v>
+        <v>1.003539192970015</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1.006228608505868</v>
+        <v>1.005478144061583</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1.000638357556016</v>
+        <v>1.000146571172616</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.002930643194049</v>
+        <v>1.002341600557003</v>
       </c>
     </row>
     <row r="15">
@@ -7535,62 +7535,62 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9976427709355435</v>
+        <v>0.9989118346619716</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9976427709355435</v>
+        <v>0.9989118346619716</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9977852422035618</v>
+        <v>0.9988059451634707</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9987969590760488</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9972611861142957</v>
+        <v>0.9991423113681862</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9972611861142957</v>
+        <v>0.9991423113681862</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9975527808798934</v>
+        <v>0.9990075069550323</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9989089229545712</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9987402158659372</v>
+        <v>0.9988014520995482</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.000471425215807</v>
+        <v>1.000355266655101</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.000471425215807</v>
+        <v>1.000355266655101</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.000457643888722</v>
+        <v>1.000368390505725</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1</v>
+        <v>1.000164432078567</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.00044705410894</v>
+        <v>1.000258244700912</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.00044705410894</v>
+        <v>1.000258244700912</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1.000357020818406</v>
+        <v>1.000270293491731</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1</v>
+        <v>1.000146506751617</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.000228821944361</v>
+        <v>1.000266411292146</v>
       </c>
     </row>
     <row r="16">
@@ -7599,62 +7599,62 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9981130848941299</v>
+        <v>0.9992667147282126</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9981130848941299</v>
+        <v>0.9992667147282126</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9982418725219138</v>
+        <v>0.9991738957907301</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9989611933360965</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9977070158252341</v>
+        <v>0.9994003345755543</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9977070158252341</v>
+        <v>0.9994003345755543</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9979089279901268</v>
+        <v>0.9992775321823528</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9990552698560349</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9989689159905956</v>
+        <v>0.9990675332422734</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.000296240932815</v>
+        <v>1.00027996332055</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.000296240932815</v>
+        <v>1.00027996332055</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.000167188261817</v>
+        <v>1.000372885006927</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1</v>
+        <v>1.000465978347348</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.000358713194477</v>
+        <v>1.000245842780063</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.000358713194477</v>
+        <v>1.000245842780063</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>1.000156305351652</v>
+        <v>1.000368764170095</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1</v>
+        <v>1.000424656746685</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.000083594130909</v>
+        <v>1.000419431677138</v>
       </c>
     </row>
     <row r="17">
@@ -7663,31 +7663,31 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9994795254166905</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -7727,31 +7727,31 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9994795254166905</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
@@ -7791,31 +7791,31 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9994795254166905</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
@@ -7855,62 +7855,62 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9984087668454538</v>
+        <v>0.9995464727557833</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>0.9996970192775176</v>
+        <v>0.9994266876220321</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9980649064960332</v>
+        <v>0.9996460299322028</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>0.9997573042214621</v>
+        <v>0.9994795254166905</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9990524777695775</v>
+        <v>0.9994865765999454</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
         <v/>
       </c>
       <c r="N20" s="22" t="n">
-        <v>1.001593769212959</v>
+        <v>1.000167878220846</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>1.001593769212959</v>
+        <v>1.000167878220846</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1.001593769212959</v>
+        <v>1.000167878220846</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1.000303072547622</v>
+        <v>1.000226856742121</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1.001938845351011</v>
+        <v>1.000145774257455</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>1.001938845351011</v>
+        <v>1.000145774257455</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1.001938845351011</v>
+        <v>1.000145774257455</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1.000242754694077</v>
+        <v>1.000242957095759</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1.00094842088029</v>
+        <v>1.000197367481483</v>
       </c>
     </row>
     <row r="21">
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997142748392821</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997142748392821</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997142748392821</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.9996534143043745</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997917525899342</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997917525899342</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997917525899342</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.9997223560594563</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>1</v>
+        <v>0.9996838436455342</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1</v>
+        <v>1.000285806822918</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1</v>
+        <v>1.000285806822918</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1</v>
+        <v>1.000285806822918</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.000346705858917</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1</v>
+        <v>1.000208290786083</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1</v>
+        <v>1.000208290786083</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1</v>
+        <v>1.000208290786083</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.00027772104811</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1</v>
+        <v>1.000316256340918</v>
       </c>
     </row>
     <row r="22">
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45808</v>
+        <v>45838</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8582,7 +8582,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>140628.12</v>
+        <v>151955.1463</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8605,76 +8605,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>4315</v>
+        <v>3515</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>18660.17</v>
+        <v>18360</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>25823.95</v>
+        <v>24325</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>26978.95</v>
+        <v>25076.99</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>27313.95</v>
+        <v>25386.99</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>27428.95</v>
+        <v>25501.99</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>27573.95</v>
+        <v>26962.03</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>27778.95</v>
+        <v>26962.03</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>27778.95</v>
+        <v>26962.03</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>27843.95</v>
+        <v>26962.03</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>27843.95</v>
+        <v>27182.26</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>27903.95</v>
+        <v>27272.3</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>28235.26</v>
+        <v>27404.01</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>28311.09</v>
+        <v>27404.01</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>28377.01</v>
+        <v>27404.01</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>28442.01</v>
+        <v>27404.01</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>28442.01</v>
+        <v>27404.01</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>28442.01</v>
+        <v>27404.01</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>28442.01</v>
+        <v>27404.01</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>28697.02</v>
+        <v>27404.01</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8685,7 +8685,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8709,7 +8709,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>151955.1463</v>
+        <v>160297.9726</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8732,73 +8732,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>3515</v>
+        <v>7955</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>18360</v>
+        <v>21590</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>24325</v>
+        <v>29755</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>25076.99</v>
+        <v>31030</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>25386.99</v>
+        <v>31640.03</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>25501.99</v>
+        <v>32075.03</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>26962.03</v>
+        <v>32435.03</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>26962.03</v>
+        <v>32495.03</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>26962.03</v>
+        <v>32520.03</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>26962.03</v>
+        <v>32690.52</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>27182.26</v>
+        <v>32831.42</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>27272.3</v>
+        <v>32896.45</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>27404.01</v>
+        <v>32961.61</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8812,7 +8812,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8836,7 +8836,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>160297.9726</v>
+        <v>161260.2412</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8859,70 +8859,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>7955</v>
+        <v>3925</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>21590</v>
+        <v>28380</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>29755</v>
+        <v>33483.31</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>31030</v>
+        <v>38913.37</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>31640.03</v>
+        <v>41260.42</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>32075.03</v>
+        <v>41410.42</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>32435.03</v>
+        <v>41320.92</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>32495.03</v>
+        <v>41485.92</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>32520.03</v>
+        <v>41751.33</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>32690.52</v>
+        <v>41933</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>32831.42</v>
+        <v>41999.22</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>32896.45</v>
+        <v>42064.33</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42064.33</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>32961.61</v>
+        <v>42129.92</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8939,7 +8939,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>42129.92</v>
+        <v>53563.52</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8963,7 +8963,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>161260.2412</v>
+        <v>171480.1265</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8986,67 +8986,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>3925</v>
+        <v>8980</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>28380</v>
+        <v>37973.32</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>33483.31</v>
+        <v>43211.22</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>38913.37</v>
+        <v>49673.93</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>41260.42</v>
+        <v>51823.93</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>41410.42</v>
+        <v>51823.93</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>41320.92</v>
+        <v>51954.68</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>41485.92</v>
+        <v>52214.68</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>41751.33</v>
+        <v>52661.66</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>41933</v>
+        <v>53171.77</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>41999.22</v>
+        <v>53262.8</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>42064.33</v>
+        <v>53262.8</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>42064.33</v>
+        <v>53378.52</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53378.52</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53429.8</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53479.95</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53479.95</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53479.95</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53479.95</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53518.93000000001</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>42129.92</v>
+        <v>53563.52</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9066,7 +9066,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>53563.52000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9090,7 +9090,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>171480.1265</v>
+        <v>180826.7985</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9113,64 +9113,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>8980</v>
+        <v>4905.13</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>38017.91</v>
+        <v>16610.17</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>43255.81</v>
+        <v>36683.58</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>49718.52</v>
+        <v>73136.03</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>51868.52</v>
+        <v>73583.74000000001</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>51868.52</v>
+        <v>73753.74000000001</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>51999.27</v>
+        <v>74191.05</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>52259.27</v>
+        <v>74619.27</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>52706.25000000001</v>
+        <v>74619.27</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>53216.36000000001</v>
+        <v>75780.25</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>53307.39000000001</v>
+        <v>75937.2</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>53307.39000000001</v>
+        <v>76025.25</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>53423.11000000001</v>
+        <v>75785.37</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>53423.11000000001</v>
+        <v>76126.62999999999</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>53474.39000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>53524.54000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>53524.54000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>53524.54000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>53524.54000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>53563.52000000001</v>
+        <v>76216.62999999999</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9193,7 +9193,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9217,7 +9217,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>180826.7985</v>
+        <v>193503.087</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9240,61 +9240,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v>4905.13</v>
+        <v>930</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>16610.17</v>
+        <v>25515.03</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>36683.58</v>
+        <v>34110.03</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>73136.03</v>
+        <v>34325.03</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>73583.74000000001</v>
+        <v>34500.15</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>73753.74000000001</v>
+        <v>35393.51</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>74191.05</v>
+        <v>35896.73</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>74619.27</v>
+        <v>38100.08</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>74619.27</v>
+        <v>38100.08</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>75780.25</v>
+        <v>38165.08</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>75937.2</v>
+        <v>38230.08</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>76025.25</v>
+        <v>38425.08</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>75785.37</v>
+        <v>38555.45</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>76126.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>76216.62999999999</v>
+        <v>39670.45</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9344,7 +9344,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>193503.087</v>
+        <v>190226.5803</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9367,58 +9367,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>930</v>
+        <v>8600</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>25515.03</v>
+        <v>31670.03</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>34110.03</v>
+        <v>32285.03</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>34325.03</v>
+        <v>34102.2</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>34500.15</v>
+        <v>39020.11</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>35393.51</v>
+        <v>41220.31</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>35896.73</v>
+        <v>42379.96</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>38100.08</v>
+        <v>42831.33</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>38100.08</v>
+        <v>43110.47</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>38165.08</v>
+        <v>43245.47</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>38230.08</v>
+        <v>43444.28</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>38425.08</v>
+        <v>43444.28</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>38555.45</v>
+        <v>44243.2</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>39670.45</v>
+        <v>44333.2</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>44333.2</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9471,7 +9471,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>190226.5803</v>
+        <v>197897.4034</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9494,55 +9494,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>8600</v>
+        <v>6245</v>
       </c>
       <c r="T15" s="22" t="n">
-        <v>31670.03</v>
+        <v>8125.03</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>32285.03</v>
+        <v>12232.82</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>34102.2</v>
+        <v>27379.18</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>39020.11</v>
+        <v>38247.71</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>41220.31</v>
+        <v>39459.6</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>42379.96</v>
+        <v>40261.09</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>42831.33</v>
+        <v>42477.67999999999</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>43110.47</v>
+        <v>43185.94999999999</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>43245.47</v>
+        <v>43598.54999999999</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>43444.28</v>
+        <v>43659.90999999999</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>43444.28</v>
+        <v>44046.18999999999</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>44243.2</v>
+        <v>44071.62999999999</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>44333.2</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>44333.2</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>44333.2</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>44333.2</v>
+        <v>44136.65999999999</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9574,7 +9574,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>44136.65999999999</v>
+        <v>51086.59999999999</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9598,7 +9598,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>197897.4034</v>
+        <v>203071.6615</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9621,52 +9621,52 @@
         <v/>
       </c>
       <c r="S16" s="22" t="n">
-        <v>6245</v>
+        <v>215</v>
       </c>
       <c r="T16" s="22" t="n">
-        <v>8125.03</v>
+        <v>4452.01</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>12232.82</v>
+        <v>18578.96</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>27379.18</v>
+        <v>39526.24</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>38247.71</v>
+        <v>42108.32</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>39459.6</v>
+        <v>43319.66</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>40261.09</v>
+        <v>45029.42999999999</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>42477.67999999999</v>
+        <v>49133.62</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>43185.94999999999</v>
+        <v>49638.59</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>43598.54999999999</v>
+        <v>49962.37</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>43659.90999999999</v>
+        <v>50369.49</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>44046.18999999999</v>
+        <v>50718.82999999999</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>44071.62999999999</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>44136.65999999999</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>44136.65999999999</v>
+        <v>51021.59999999999</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>44136.65999999999</v>
+        <v>51086.59999999999</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>51021.59999999999</v>
+        <v>56905.2</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9725,7 +9725,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>203071.6615</v>
+        <v>198087.8535</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9748,49 +9748,49 @@
         <v/>
       </c>
       <c r="S17" s="22" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>4452.01</v>
+        <v>7895.83</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>18578.96</v>
+        <v>34484.4</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>39526.24</v>
+        <v>44969.18</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>42108.32</v>
+        <v>47976.17</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>43319.66</v>
+        <v>49994.50999999999</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>45029.42999999999</v>
+        <v>54948.98</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>49133.62</v>
+        <v>55818.57999999999</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>49638.59</v>
+        <v>55844.06999999999</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>49962.37</v>
+        <v>55949.44</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>50369.49</v>
+        <v>56159.94</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>50718.82999999999</v>
+        <v>56790.2</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>51021.59999999999</v>
+        <v>56855.2</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>51021.59999999999</v>
+        <v>56880.2</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>51021.59999999999</v>
+        <v>56905.2</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9828,7 +9828,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>56905.2</v>
+        <v>51370.70999999998</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9852,7 +9852,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>198087.8535</v>
+        <v>203918.7383</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9875,46 +9875,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v>65</v>
+        <v>2640</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>7895.83</v>
+        <v>15010.77</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>34509.4</v>
+        <v>34485.73</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>44994.18</v>
+        <v>40080.56999999999</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>48001.17</v>
+        <v>44240.51999999999</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>50019.50999999999</v>
+        <v>46677.20999999999</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>54973.98</v>
+        <v>47491.15999999999</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>55843.57999999999</v>
+        <v>47868.12999999999</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>55869.06999999999</v>
+        <v>48490.79999999999</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>55974.44</v>
+        <v>50647.02999999998</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>56184.94</v>
+        <v>51170.70999999998</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>56815.2</v>
+        <v>51270.70999999998</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>56880.2</v>
+        <v>51370.70999999998</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>56905.2</v>
+        <v>51370.70999999998</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9955,7 +9955,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>51370.70999999999</v>
+        <v>58985.27</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9979,7 +9979,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>203918.7383</v>
+        <v>198109.2594</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10005,43 +10005,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>2640</v>
+        <v>2230</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>15010.77</v>
+        <v>15345.53</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>34485.73</v>
+        <v>29821.05</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>40080.56999999999</v>
+        <v>40535.74</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>44240.51999999999</v>
+        <v>45843.14999999999</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>46677.20999999999</v>
+        <v>52182.45999999999</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>47491.15999999999</v>
+        <v>52389.55999999999</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>47868.12999999999</v>
+        <v>57817.31999999999</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>48490.79999999999</v>
+        <v>58243.55</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>50647.02999999999</v>
+        <v>58598.55</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>51170.70999999999</v>
+        <v>58723.55</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>51270.70999999999</v>
+        <v>58855.27</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>51370.70999999999</v>
+        <v>58985.27</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10085,7 +10085,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>58855.27000000001</v>
+        <v>67137.7</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10109,7 +10109,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>198109.2594</v>
+        <v>193529.1439</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10141,40 +10141,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>2230</v>
+        <v>3790</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>15345.53</v>
+        <v>12493.69</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>29821.05</v>
+        <v>23420.51</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>40535.74000000001</v>
+        <v>44184.59</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>45843.15000000001</v>
+        <v>57518.94</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>52182.46000000001</v>
+        <v>60154.91</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>52389.56</v>
+        <v>61190.83</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>57817.32000000001</v>
+        <v>65977.7</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>58243.55000000001</v>
+        <v>67022.7</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>58598.55000000001</v>
+        <v>67137.7</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>58723.55000000001</v>
+        <v>67137.7</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>58855.27000000001</v>
+        <v>67137.7</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10221,7 +10221,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>67137.7</v>
+        <v>40476.31</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10245,7 +10245,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>193529.1439</v>
+        <v>191031.0336</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10277,37 +10277,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>3790</v>
+        <v>2865</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>12493.69</v>
+        <v>11974.28</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>23420.51</v>
+        <v>20871.24</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>44184.59</v>
+        <v>33622.52</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>57518.94</v>
+        <v>37468.63</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>60154.91</v>
+        <v>39192.52</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>61190.83</v>
+        <v>39606.12</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>65977.7</v>
+        <v>40126.31</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>67022.7</v>
+        <v>40321.31</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>67137.7</v>
+        <v>40411.31</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>67137.7</v>
+        <v>40476.31</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10357,7 +10357,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>40411.31</v>
+        <v>53050.17000000001</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>191031.0336</v>
+        <v>187676.6539</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10413,34 +10413,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>2865</v>
+        <v>3250.53</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>11974.28</v>
+        <v>12510.78</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>20871.24</v>
+        <v>18613.06</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>33622.52</v>
+        <v>38606.15</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>37468.63</v>
+        <v>50536.78</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>39192.52</v>
+        <v>52465.19</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>39606.12</v>
+        <v>52580.52</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>40126.31</v>
+        <v>52800.52</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>40321.31</v>
+        <v>52940.52</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>40411.31</v>
+        <v>53050.17000000001</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10493,7 +10493,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>53020.17000000001</v>
+        <v>38388.69</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10517,7 +10517,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>187676.6539</v>
+        <v>184637.641</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10549,31 +10549,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>3250.53</v>
+        <v>3435</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>12510.78</v>
+        <v>13467.45</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>18648.06</v>
+        <v>16119.02</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>38641.15</v>
+        <v>30858.67</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>50616.43</v>
+        <v>35781.29</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>52544.84</v>
+        <v>36782.41</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>52660.17000000001</v>
+        <v>37997.41</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>52880.17000000001</v>
+        <v>38257.41</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>53020.17000000001</v>
+        <v>38388.69</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10629,7 +10629,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>38257.41</v>
+        <v>37284.88</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10655,7 +10655,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>184637.641</v>
+        <v>171913.5757</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10687,28 +10687,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>3435</v>
+        <v>2155</v>
       </c>
       <c r="T24" s="22" t="n">
-        <v>13467.45</v>
+        <v>11472.64</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>16119.02</v>
+        <v>18395.9</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>30858.67</v>
+        <v>33859.34</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>35781.29</v>
+        <v>36040.7</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>36782.41</v>
+        <v>36595.96000000001</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>37997.41</v>
+        <v>37005.96000000001</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>38257.41</v>
+        <v>37284.88</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10767,7 +10767,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>37054.99000000001</v>
+        <v>30384.75</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>171913.5757</v>
+        <v>170289.106</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10825,25 +10825,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v>2155</v>
+        <v>1535</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>11472.64</v>
+        <v>9960.67</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>18395.9</v>
+        <v>20549.26</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>33908.37</v>
+        <v>28059.37</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>36089.73</v>
+        <v>29414.75</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>36644.99000000001</v>
+        <v>29834.75</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>37054.99000000001</v>
+        <v>30384.75</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10905,7 +10905,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>29899.75</v>
+        <v>32797.31</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10931,7 +10931,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>170289.106</v>
+        <v>150941.2284</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10963,22 +10963,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>1535</v>
+        <v>3480</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>9960.67</v>
+        <v>14123.67</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>20549.26</v>
+        <v>27107.12</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>28124.37</v>
+        <v>30987.31</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>29479.75</v>
+        <v>31912.31</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>29899.75</v>
+        <v>32797.31</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11043,7 +11043,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>31962.31</v>
+        <v>34891.29</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>150941.2284</v>
+        <v>143895.0667</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11101,19 +11101,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>3480</v>
+        <v>2180</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>14123.67</v>
+        <v>18846.75</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>27157.12</v>
+        <v>31380.92</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>31037.31</v>
+        <v>34270.92</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>31962.31</v>
+        <v>34891.29</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11181,7 +11181,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>34270.92</v>
+        <v>23227.1</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11207,7 +11207,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>143895.0667</v>
+        <v>140198.7571</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11239,16 +11239,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>2180</v>
+        <v>5105</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>18846.75</v>
+        <v>18940.21</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>31380.92</v>
+        <v>22402.1</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>34270.92</v>
+        <v>23227.1</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11319,7 +11319,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>22402.1</v>
+        <v>24155.84</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11346,7 +11346,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>140198.7571</v>
+        <v>140799.498</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>30</v>
@@ -11377,13 +11377,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>5105</v>
+        <v>4830</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>18940.21</v>
+        <v>21755</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>22402.1</v>
+        <v>24155.84</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11457,7 +11457,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>21755</v>
+        <v>16701.5</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11484,7 +11484,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>140799.498</v>
+        <v>133401.6958</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>30</v>
@@ -11515,10 +11515,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>4830</v>
+        <v>3075</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>21755</v>
+        <v>16701.5</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11595,7 +11595,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>3075</v>
+        <v>5039.4</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11653,7 +11653,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>3075</v>
+        <v>5039.4</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
